--- a/results_analysis/spark_vertebralColum_02_hold2.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FD92FF-29E7-4557-9E06-46A13F089C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751AECF-2675-4F48-BF6F-05F68F9077D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,12 +617,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,16 +638,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -663,12 +651,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -711,6 +693,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -996,7 +990,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,19 +1008,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1074,28 +1068,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="46">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.68882352941176495</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.73058823529411798</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.71705882352941197</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.69529411764705895</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.69882352941176495</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.69470588235294095</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.71294117647058797</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="48">
+        <v>0.65764705882353003</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.746470588235294</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.64294117647058802</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.73705882352941199</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.74235294117647099</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.68117647058823505</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1105,14 +1131,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="48">
+        <v>0.70058823529411796</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.621176470588235</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.65058823529411802</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.64647058823529402</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.71823529411764697</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.66529411764705904</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1120,14 +1162,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="49">
+        <v>0.68352941176470605</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.72470588235294098</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.69529411764705895</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.66588235294117604</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.65764705882352903</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.55176470588235305</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.69941176470588196</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.67470588235294104</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1139,28 +1197,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="51">
+        <v>0.71352941176470597</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.64823529411764702</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.70235294117647096</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.73</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.73705882352941199</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.72588235294117598</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.70647058823529396</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="48">
+        <v>0.754705882352941</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.72411764705882398</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.71764705882352997</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73882352941176499</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.79058823529411804</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.435294117647059</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.75823529411764701</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1170,14 +1260,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="48">
+        <v>0.68117647058823505</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.66117647058823503</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.68647058823529405</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.64176470588235301</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.65352941176470603</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1185,14 +1291,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="49">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.75705882352941201</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.72588235294117598</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.754117647058824</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.503529411764706</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.68470588235294105</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.76705882352941201</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1204,28 +1326,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="51">
+        <v>0.65823529411764703</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.68470588235294105</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0.72235294117647098</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.72529411764705898</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.71588235294117697</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.68764705882353006</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.73176470588235298</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.68941176470588295</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="48">
+        <v>0.73823529411764699</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.73352941176470599</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.76176470588235301</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.71411764705882397</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.77235294117647102</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.75588235294117601</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.71176470588235297</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1235,14 +1389,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="48">
+        <v>0.625882352941176</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.33588235294117602</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.47294117647058798</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.35823529411764699</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.55529411764705905</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.53529411764705903</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.39117647058823501</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.49411764705882399</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1250,14 +1420,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="49">
+        <v>0.54058823529411804</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.40647058823529397</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.52882352941176503</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.33058823529411802</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.47235294117647098</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.53647058823529403</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.38764705882352901</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.44411764705882401</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1269,28 +1455,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="51">
+        <v>0.73411764705882399</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.77235294117647102</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.72176470588235297</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.67588235294117704</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.72</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.65352941176470603</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.74294117647058799</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="48">
+        <v>0.77529411764705902</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.71411764705882397</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.68764705882353006</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.68647058823529405</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.73058823529411798</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.58529411764705896</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.70235294117647096</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.73235294117647098</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1300,14 +1518,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="48">
+        <v>0.71470588235294097</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.65705882352941203</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.66235294117647103</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.63764705882352901</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.64235294117647102</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1315,14 +1549,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="49">
+        <v>0.66058823529411803</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.71705882352941197</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.68294117647058805</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.66705882352941204</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.63411764705882401</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.70882352941176496</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.70294117647058796</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -1668,7 +1918,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,19 +1929,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1748,14 +1998,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="46">
+        <v>0.47607361599197101</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.50445036179355196</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.56656618278494197</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.47503810385458001</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.539380309275303</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.45460318489938001</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.43209048439208497</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.41914554534551401</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -1763,14 +2029,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="48">
+        <v>0.25717224993681997</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.48273703863624401</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.47760560702552302</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.35825027951272698</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.49171334187920002</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.55453750571777805</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.50145819113891998</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.30719610404940101</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -1780,14 +2062,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="48">
+        <v>0.49632030036435698</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.36847253055282903</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.391116386734215</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.51308242738665899</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.45443999220546899</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.45067714377558099</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.53673943919673495</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.52752410659948801</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -1795,14 +2093,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="49">
+        <v>0.45566644778554899</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.37417451562673198</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.66944192058589502</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.547067049955686</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.521036317931999</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.46377000522516798</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.56948042764444495</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.40567404226968801</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -1814,14 +2128,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="51">
+        <v>0.27142857142857102</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.42076551493839398</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.47140452079103201</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.55709521155144903</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.48761843600343402</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.49640165425470301</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -1829,14 +2159,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="48">
+        <v>0.48140685098992603</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.49264465976083199</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.54185755307885197</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.474306221372921</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.57863756235784503</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.49804865778528901</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.566605962905531</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -1846,14 +2192,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="48">
+        <v>0.56862161608183903</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.40803896090255598</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.49057789051960599</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.403856378511954</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.53874802376117903</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.40567404226968801</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.50507627227610497</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.49804865778528901</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -1861,14 +2223,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="49">
+        <v>0.438483776020549</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.478759097932489</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.48613591206575102</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.43602531271676398</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.51689950652558203</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.29709602468568203</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.56166419386201505</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.54006172486732196</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1880,14 +2258,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="51">
+        <v>0.51533141059861798</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.24195876406208</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0.49640165425470301</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.521036317931999</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.33671751485073698</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.51308242738665899</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.66659047183623699</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.42949135266504701</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1895,14 +2289,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="48">
+        <v>0.61806048391940105</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.51394830201378905</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.49648305284757599</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.51689950652558203</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.39701252157894901</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.59523809523809501</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.46131104666309403</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.40336327767358898</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -1912,14 +2322,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="48">
+        <v>0.37450138915343201</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.38449410579468501</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.26199781896584001</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.21190993394794</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.29235633343592199</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.33461014306474701</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.27231887559393703</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.40539284679774001</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -1927,14 +2353,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="49">
+        <v>0.36499819754421597</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.20028337073936001</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.17530019603571101</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.36733344856392097</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.37038926633581098</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.25249669058143898</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.32274668059272499</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.46291004988627599</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -1946,14 +2388,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="51">
+        <v>0.57041694756655503</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.57635784672057699</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.39234574699515401</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.42298151271232398</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.45794419091678401</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.37450138915343201</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.41544360724964602</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.521036317931999</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -1961,14 +2419,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="48">
+        <v>0.56337648062240098</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.46627943559561902</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.51810602797122096</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.52122606544497796</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.58256376693754397</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.30655060447454302</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.403856378511954</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.44057689901011399</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -1978,14 +2452,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="48">
+        <v>0.41270237279908101</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.28123314010279599</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.47075654176200399</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.52302823818319499</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.47286758085903702</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.35466886408098097</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.42433421239575297</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.47075654176200399</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -1993,14 +2483,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="49">
+        <v>0.52915082606939201</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.54110778144792504</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.447434750707915</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.54684674349338303</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.58636426234324901</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.45883510924625798</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.58636426234324901</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2015,7 +2521,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,19 +2532,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2095,14 +2601,30 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="46">
+        <v>0.72961879841978405</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.72549019607843102</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.78301229983754905</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.73697782362042297</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.72617648339210294</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.70512399793727398</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.71545471452482801</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.70486111111111105</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -2110,14 +2632,30 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="48">
+        <v>0.61731174206666195</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.734717416378316</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.67787114845938401</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.67589244625599898</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.73484276729559805</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.75294172800150005</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.742068965517241</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.65073529411764697</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2127,14 +2665,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="48">
+        <v>0.71983153268632105</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.65244444444444405</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.65163934426229497</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.72402597402597402</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.68066939890710398</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.68706171107994396</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.75817923186344205</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.76223776223776196</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2142,14 +2696,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="49">
+        <v>0.69878697015128799</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.68548644338118003</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.81698962614993198</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.76450669539787597</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.72968061423833497</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.717165785868076</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.78466735026237999</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.69517241379310402</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2161,14 +2731,30 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="51">
+        <v>0.63571428571428601</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.71032375580233897</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.716383049716383</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.76090014064697598</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.74355999071710399</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.72679145396105105</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -2176,14 +2762,30 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="48">
+        <v>0.73634953740841802</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.733162100456621</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.75655523184040296</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73653214307854498</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.78826992753623204</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.73380309258171905</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.76707770600900405</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2193,14 +2795,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="48">
+        <v>0.77747526048484195</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.67276959577420703</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.68833333333333302</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.68939805441706603</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.74879641546308195</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.69517241379310402</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.73258973258973303</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.73380309258171905</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2208,14 +2826,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="49">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.71283783783783805</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.73569651741293496</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.717494699444158</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.74581339712918704</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.61737058122600297</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.76905660377358498</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.76902173913043503</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2227,14 +2861,30 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="51">
+        <v>0.697170553875471</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.61893827565469395</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0.72679145396105105</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.72968061423833497</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.66713286713286701</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.72402597402597402</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.82037735849056603</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.70052847915443295</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -2242,14 +2892,30 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="48">
+        <v>0.79939459237596799</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.73846153846153895</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.74187130216241703</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.74581339712918704</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.69801157526789304</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.797619047619048</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.728867623604466</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.69824469134179201</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2259,14 +2925,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="48">
+        <v>0.67809804334104795</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.64659963514488095</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.62482758620689705</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.59798742138364802</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.59058067968959105</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.66361837531418799</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.55511083743842404</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.70263586464804895</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2274,14 +2956,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="49">
+        <v>0.65757187328328104</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.600096507630135</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.61027667984189704</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.66776300109633402</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.62222222222222201</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.59768962336047504</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.63864734299516901</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2293,14 +2991,30 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="51">
+        <v>0.75686274509803897</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.77334452619623695</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.68464611872146097</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.683340148107764</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.69239595745619897</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.67809804334104795</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.67803030303030298</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.72968061423833497</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
@@ -2308,14 +3022,30 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="48">
+        <v>0.75893363584798701</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.72363340784393404</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.754532327931975</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.73700248464675799</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.78195064388692204</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.63137254901960804</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.68939805441706603</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.71217484993073699</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2325,14 +3055,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="48">
+        <v>0.69497607655502402</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.63675213675213704</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.73015873015873001</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.74441049517435398</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.70320963337660602</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.65730626787304902</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.71127717391304401</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.73015873015873001</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2340,14 +3086,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="49">
+        <v>0.735396447537081</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.76764529003335003</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.71192185007974496</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.73176718092566595</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.77970494417862901</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.66241134751773101</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.77970494417862901</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.45161290322580599</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2362,7 +3124,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2380,19 +3142,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2440,28 +3202,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="D5" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.67941176470588205</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.76764705882352902</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.66470588235294104</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.67647058823529405</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="D6" s="13">
+        <v>0.67941176470588205</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.63823529411764701</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.75588235294117601</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.67352941176470604</v>
+      </c>
+      <c r="K6" s="13">
+        <v>0.69117647058823495</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2471,14 +3265,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="13">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.61176470588235299</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.50882352941176501</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.72647058823529398</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.67058823529411804</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2486,14 +3296,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="D8" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.75588235294117601</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.68235294117647105</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.65</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.69705882352941195</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.68235294117647105</v>
+      </c>
+      <c r="K8" s="13">
+        <v>0.68235294117647105</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -2505,28 +3331,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="D9" s="13">
+        <v>0.71470588235294097</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.66764705882353004</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.70882352941176496</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.74411764705882399</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.71176470588235297</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="D10" s="13">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.68235294117647105</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.70882352941176496</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73823529411764699</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.80294117647058805</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.76764705882352902</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -2536,14 +3394,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="D11" s="13">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.67352941176470604</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.66470588235294104</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="K11" s="13">
+        <v>0.65294117647058803</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2551,14 +3425,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="D12" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.68823529411764695</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.76176470588235301</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.54117647058823504</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.67352941176470604</v>
+      </c>
+      <c r="K12" s="13">
+        <v>0.78235294117647103</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -2570,28 +3460,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="13">
+        <v>0.67352941176470604</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.69117647058823495</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.73823529411764699</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.72647058823529398</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0.73235294117647098</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -2601,14 +3523,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="D15" s="13">
+        <v>0.66470588235294104</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.17647058823529399</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.46764705882352903</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.34705882352941197</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.58529411764705896</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.52058823529411802</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.40882352941176497</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0.49411764705882399</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2616,14 +3554,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="D16" s="13">
+        <v>0.53235294117647103</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.51764705882352902</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.25882352941176501</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.46176470588235302</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.52352941176470602</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.36176470588235299</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.56470588235294095</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -2635,28 +3589,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="D17" s="13">
+        <v>0.72647058823529398</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.76176470588235301</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.76470588235294101</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.68235294117647105</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.75588235294117601</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="D18" s="13">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.67941176470588205</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.64411764705882402</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -2666,14 +3652,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="13">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.64411764705882402</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.71470588235294097</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.67352941176470604</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.66176470588235303</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.73529411764705899</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.61764705882352899</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2681,14 +3683,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="D20" s="13">
+        <v>0.68235294117647105</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.63235294117647101</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.67941176470588205</v>
+      </c>
+      <c r="K20" s="13">
+        <v>0.71470588235294097</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -2876,7 +3894,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2894,19 +3912,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2954,28 +3972,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="53"/>
+      <c r="D5" s="46">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="K5" s="47">
+        <v>0.84705882352941197</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="15"/>
+      <c r="D6" s="48">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.86470588235294099</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.77647058823529402</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -2985,14 +4035,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="15"/>
+      <c r="D7" s="48">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.83529411764705896</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.85294117647058798</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3000,14 +4066,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="56"/>
+      <c r="D8" s="49">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.84705882352941197</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3019,28 +4101,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59"/>
+      <c r="D9" s="51">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="H9" s="52">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0.84705882352941197</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="15"/>
+      <c r="D10" s="48">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.83529411764705896</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3050,14 +4164,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="15"/>
+      <c r="D11" s="48">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.84705882352941197</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.81176470588235305</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3065,14 +4195,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="56"/>
+      <c r="D12" s="49">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="K12" s="50">
+        <v>0.85882352941176499</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3084,28 +4230,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="59"/>
+      <c r="D13" s="51">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J13" s="52">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.78823529411764703</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="15"/>
+      <c r="D14" s="48">
+        <v>0.86470588235294099</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.84117647058823497</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3115,14 +4293,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="15"/>
+      <c r="D15" s="48">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.82941176470588196</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3130,14 +4324,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="56"/>
+      <c r="D16" s="49">
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.65882352941176503</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.65294117647058803</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.67647058823529405</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3149,28 +4359,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="59"/>
+      <c r="D17" s="51">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.84705882352941197</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.752941176470588</v>
+      </c>
+      <c r="K17" s="53">
+        <v>0.79411764705882404</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="15"/>
+      <c r="D18" s="48">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0.80588235294117705</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3180,14 +4422,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="15"/>
+      <c r="D19" s="48">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.747058823529412</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.82352941176470595</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3195,14 +4453,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="56"/>
+      <c r="D20" s="49">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="14">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.84705882352941197</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0.84705882352941197</v>
+      </c>
+      <c r="K20" s="50">
+        <v>0.82352941176470595</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
@@ -3548,7 +4822,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,19 +4840,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3626,28 +4900,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="29">
+        <v>9</v>
+      </c>
+      <c r="E5" s="29">
+        <v>18</v>
+      </c>
+      <c r="F5" s="29">
+        <v>6</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8</v>
+      </c>
+      <c r="H5" s="29">
+        <v>23</v>
+      </c>
+      <c r="I5" s="29">
+        <v>112</v>
+      </c>
+      <c r="J5" s="29">
+        <v>5</v>
+      </c>
+      <c r="K5" s="29">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="29">
+        <v>9</v>
+      </c>
+      <c r="E6" s="29">
+        <v>22</v>
+      </c>
+      <c r="F6" s="29">
+        <v>17</v>
+      </c>
+      <c r="G6" s="29">
+        <v>23</v>
+      </c>
+      <c r="H6" s="29">
+        <v>34</v>
+      </c>
+      <c r="I6" s="29">
+        <v>48</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="29">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -3657,14 +4963,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="29">
+        <v>14</v>
+      </c>
+      <c r="E7" s="29">
+        <v>11</v>
+      </c>
+      <c r="F7" s="29">
+        <v>3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>3</v>
+      </c>
+      <c r="H7" s="29">
+        <v>5</v>
+      </c>
+      <c r="I7" s="29">
+        <v>100</v>
+      </c>
+      <c r="J7" s="29">
+        <v>7</v>
+      </c>
+      <c r="K7" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -3672,14 +4994,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="29">
+        <v>10</v>
+      </c>
+      <c r="E8" s="29">
+        <v>16</v>
+      </c>
+      <c r="F8" s="29">
+        <v>9</v>
+      </c>
+      <c r="G8" s="29">
+        <v>27</v>
+      </c>
+      <c r="H8" s="29">
+        <v>11</v>
+      </c>
+      <c r="I8" s="29">
+        <v>112</v>
+      </c>
+      <c r="J8" s="29">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -3691,28 +5029,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="29">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
+        <v>44</v>
+      </c>
+      <c r="F9" s="29">
+        <v>29</v>
+      </c>
+      <c r="G9" s="29">
+        <v>24</v>
+      </c>
+      <c r="H9" s="29">
+        <v>4</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>5</v>
+      </c>
+      <c r="K9" s="29">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="29">
+        <v>33</v>
+      </c>
+      <c r="E10" s="29">
+        <v>18</v>
+      </c>
+      <c r="F10" s="29">
+        <v>15</v>
+      </c>
+      <c r="G10" s="29">
+        <v>6</v>
+      </c>
+      <c r="H10" s="29">
+        <v>23</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
+        <v>4</v>
+      </c>
+      <c r="K10" s="29">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -3722,14 +5092,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="29">
+        <v>9</v>
+      </c>
+      <c r="E11" s="29">
+        <v>11</v>
+      </c>
+      <c r="F11" s="29">
+        <v>29</v>
+      </c>
+      <c r="G11" s="29">
+        <v>5</v>
+      </c>
+      <c r="H11" s="29">
+        <v>38</v>
+      </c>
+      <c r="I11" s="29">
+        <v>2</v>
+      </c>
+      <c r="J11" s="29">
+        <v>5</v>
+      </c>
+      <c r="K11" s="29">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -3737,14 +5123,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="29">
+        <v>7</v>
+      </c>
+      <c r="E12" s="29">
+        <v>16</v>
+      </c>
+      <c r="F12" s="29">
+        <v>28</v>
+      </c>
+      <c r="G12" s="29">
+        <v>26</v>
+      </c>
+      <c r="H12" s="29">
+        <v>16</v>
+      </c>
+      <c r="I12" s="29">
+        <v>2</v>
+      </c>
+      <c r="J12" s="29">
+        <v>5</v>
+      </c>
+      <c r="K12" s="29">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -3756,28 +5158,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="29">
+        <v>27</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="29">
+        <v>23</v>
+      </c>
+      <c r="G13" s="29">
+        <v>21</v>
+      </c>
+      <c r="H13" s="29">
+        <v>4</v>
+      </c>
+      <c r="I13" s="29">
+        <v>31</v>
+      </c>
+      <c r="J13" s="29">
+        <v>8</v>
+      </c>
+      <c r="K13" s="29">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="29">
+        <v>35</v>
+      </c>
+      <c r="E14" s="29">
+        <v>4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>6</v>
+      </c>
+      <c r="G14" s="29">
+        <v>25</v>
+      </c>
+      <c r="H14" s="29">
+        <v>12</v>
+      </c>
+      <c r="I14" s="29">
+        <v>14</v>
+      </c>
+      <c r="J14" s="29">
+        <v>5</v>
+      </c>
+      <c r="K14" s="29">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -3787,14 +5221,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="29">
+        <v>2</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2</v>
+      </c>
+      <c r="H15" s="29">
+        <v>2</v>
+      </c>
+      <c r="I15" s="29">
+        <v>2</v>
+      </c>
+      <c r="J15" s="29">
+        <v>2</v>
+      </c>
+      <c r="K15" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -3802,14 +5252,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="29">
+        <v>2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2</v>
+      </c>
+      <c r="J16" s="29">
+        <v>2</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -3821,28 +5287,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="29">
+        <v>112</v>
+      </c>
+      <c r="E17" s="29">
+        <v>82</v>
+      </c>
+      <c r="F17" s="29">
+        <v>6</v>
+      </c>
+      <c r="G17" s="29">
+        <v>66</v>
+      </c>
+      <c r="H17" s="29">
+        <v>77</v>
+      </c>
+      <c r="I17" s="29">
+        <v>3</v>
+      </c>
+      <c r="J17" s="29">
+        <v>24</v>
+      </c>
+      <c r="K17" s="29">
+        <v>78</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="29">
+        <v>108</v>
+      </c>
+      <c r="E18" s="29">
+        <v>36</v>
+      </c>
+      <c r="F18" s="29">
+        <v>23</v>
+      </c>
+      <c r="G18" s="29">
+        <v>38</v>
+      </c>
+      <c r="H18" s="29">
+        <v>50</v>
+      </c>
+      <c r="I18" s="29">
+        <v>6</v>
+      </c>
+      <c r="J18" s="29">
+        <v>7</v>
+      </c>
+      <c r="K18" s="29">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -3852,14 +5350,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="29">
+        <v>11</v>
+      </c>
+      <c r="E19" s="29">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29">
+        <v>12</v>
+      </c>
+      <c r="G19" s="29">
+        <v>23</v>
+      </c>
+      <c r="H19" s="29">
+        <v>3</v>
+      </c>
+      <c r="I19" s="29">
+        <v>10</v>
+      </c>
+      <c r="J19" s="29">
+        <v>12</v>
+      </c>
+      <c r="K19" s="29">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -3867,14 +5381,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="29">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29">
+        <v>9</v>
+      </c>
+      <c r="F20" s="29">
+        <v>12</v>
+      </c>
+      <c r="G20" s="29">
+        <v>9</v>
+      </c>
+      <c r="H20" s="29">
+        <v>9</v>
+      </c>
+      <c r="I20" s="29">
+        <v>12</v>
+      </c>
+      <c r="J20" s="29">
+        <v>11</v>
+      </c>
+      <c r="K20" s="29">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4062,7 +5592,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,19 +5610,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4140,28 +5670,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>14.6</v>
+      </c>
+      <c r="G5" s="19">
+        <v>14.2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="I5" s="19">
+        <v>60</v>
+      </c>
+      <c r="J5" s="19">
+        <v>7</v>
+      </c>
+      <c r="K5" s="19">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E6" s="19">
+        <v>27.6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="H6" s="19">
+        <v>21.2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J6" s="19">
+        <v>7</v>
+      </c>
+      <c r="K6" s="19">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4171,14 +5733,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G7" s="19">
+        <v>6.9</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>29.8</v>
+      </c>
+      <c r="J7" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="K7" s="19">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4186,14 +5764,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E8" s="19">
+        <v>19.5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="G8" s="19">
+        <v>14.1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I8" s="19">
+        <v>72.7</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="K8" s="19">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4205,28 +5799,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="E9" s="19">
+        <v>13</v>
+      </c>
+      <c r="F9" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="G9" s="19">
+        <v>19.2</v>
+      </c>
+      <c r="H9" s="19">
+        <v>14.9</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>16</v>
+      </c>
+      <c r="K9" s="19">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>15.1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>16.2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>13</v>
+      </c>
+      <c r="H10" s="19">
+        <v>27.2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>18.899999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4236,14 +5862,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="H11" s="19">
+        <v>18.5</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K11" s="19">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4251,14 +5893,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>19.3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>15.6</v>
+      </c>
+      <c r="G12" s="19">
+        <v>18.8</v>
+      </c>
+      <c r="H12" s="19">
+        <v>11.8</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>9</v>
+      </c>
+      <c r="K12" s="19">
+        <v>17.899999999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4270,28 +5928,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>12.7</v>
+      </c>
+      <c r="E13" s="19">
+        <v>15.4</v>
+      </c>
+      <c r="F13" s="19">
+        <v>17.7</v>
+      </c>
+      <c r="G13" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="H13" s="19">
+        <v>11.6</v>
+      </c>
+      <c r="I13" s="19">
+        <v>15.4</v>
+      </c>
+      <c r="J13" s="19">
+        <v>13.9</v>
+      </c>
+      <c r="K13" s="19">
+        <v>8.6999999999999993</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>13.7</v>
+      </c>
+      <c r="E14" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="F14" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>22.7</v>
+      </c>
+      <c r="H14" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="I14" s="19">
+        <v>19</v>
+      </c>
+      <c r="J14" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="K14" s="19">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4301,14 +5991,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4316,14 +6022,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4335,28 +6057,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>75.5</v>
+      </c>
+      <c r="E17" s="19">
+        <v>98.2</v>
+      </c>
+      <c r="F17" s="19">
+        <v>15.1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>35</v>
+      </c>
+      <c r="H17" s="19">
+        <v>46.2</v>
+      </c>
+      <c r="I17" s="19">
+        <v>10.4</v>
+      </c>
+      <c r="J17" s="19">
+        <v>7.7</v>
+      </c>
+      <c r="K17" s="19">
+        <v>75</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>91</v>
+      </c>
+      <c r="E18" s="19">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F18" s="19">
+        <v>14.7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>42.2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>53.5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="K18" s="19">
+        <v>66.5</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4366,14 +6120,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>12</v>
+      </c>
+      <c r="E19" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="F19" s="19">
+        <v>9.5</v>
+      </c>
+      <c r="G19" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="J19" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="K19" s="19">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4381,14 +6151,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>10.7</v>
+      </c>
+      <c r="E20" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="G20" s="19">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H20" s="19">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I20" s="19">
+        <v>10</v>
+      </c>
+      <c r="J20" s="19">
+        <v>9.1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -4576,7 +6362,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,19 +6380,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4654,28 +6440,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>9</v>
+      </c>
+      <c r="G6" s="19">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4</v>
+      </c>
+      <c r="J6" s="19">
+        <v>2</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -4685,14 +6503,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -4700,14 +6534,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>7</v>
+      </c>
+      <c r="I8" s="19">
+        <v>4</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -4719,28 +6569,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19">
+        <v>3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>9</v>
+      </c>
+      <c r="K10" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -4750,14 +6632,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -4765,14 +6663,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>9</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="19">
+        <v>9</v>
+      </c>
+      <c r="G12" s="19">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>9</v>
+      </c>
+      <c r="K12" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -4784,28 +6698,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>9</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="19">
+        <v>5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>5</v>
+      </c>
+      <c r="H14" s="19">
+        <v>5</v>
+      </c>
+      <c r="I14" s="19">
+        <v>9</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -4815,14 +6761,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -4830,14 +6792,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>3</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4</v>
+      </c>
+      <c r="G16" s="19">
+        <v>8</v>
+      </c>
+      <c r="H16" s="19">
+        <v>7</v>
+      </c>
+      <c r="I16" s="19">
+        <v>5</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -4849,28 +6827,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>6</v>
+      </c>
+      <c r="E18" s="19">
+        <v>9</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19">
+        <v>9</v>
+      </c>
+      <c r="H18" s="19">
+        <v>7</v>
+      </c>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -4880,14 +6890,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -4895,14 +6921,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>8</v>
+      </c>
+      <c r="G20" s="19">
+        <v>6</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
+      <c r="J20" s="19">
+        <v>8</v>
+      </c>
+      <c r="K20" s="19">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5090,7 +7132,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,19 +7150,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5168,28 +7210,60 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="F6" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="H6" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>4</v>
+      </c>
+      <c r="J6" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5199,14 +7273,30 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5214,14 +7304,30 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G8" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="19">
+        <v>6</v>
+      </c>
+      <c r="J8" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="K8" s="19">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5233,28 +7339,60 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="F10" s="19">
+        <v>7</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5264,14 +7402,30 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5279,14 +7433,30 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
+      <c r="D12" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="F12" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="J12" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="K12" s="19">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5298,28 +7468,60 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="D14" s="19">
+        <v>5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="G14" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="H14" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I14" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="J14" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="K14" s="19">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5329,14 +7531,30 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5344,14 +7562,30 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="D16" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4.8</v>
+      </c>
+      <c r="G16" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="I16" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>6.6</v>
+      </c>
+      <c r="K16" s="19">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5363,28 +7597,60 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
+      <c r="D18" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5.8</v>
+      </c>
+      <c r="G18" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="H18" s="19">
+        <v>5.9</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="K18" s="19">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -5394,14 +7660,30 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -5409,14 +7691,30 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
+      <c r="D20" s="19">
+        <v>6.4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>5.4</v>
+      </c>
+      <c r="H20" s="19">
+        <v>7.6</v>
+      </c>
+      <c r="I20" s="19">
+        <v>6.1</v>
+      </c>
+      <c r="J20" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K20" s="19">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -5604,7 +7902,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5612,36 +7910,39 @@
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5651,29 +7952,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="57"/>
+      <c r="O3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -5735,38 +8036,90 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="D5" s="61">
+        <v>2</v>
+      </c>
+      <c r="E5" s="35">
+        <v>4</v>
+      </c>
+      <c r="F5" s="36">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.125</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="I5" s="36">
+        <v>16</v>
+      </c>
+      <c r="J5" s="36">
+        <v>16</v>
+      </c>
+      <c r="K5" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="L5" s="36">
+        <v>4</v>
+      </c>
+      <c r="M5" s="33">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N5" s="34">
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="O5" s="36">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P5" s="37">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="15"/>
+      <c r="D6" s="39">
+        <v>512</v>
+      </c>
+      <c r="E6" s="29">
+        <v>32</v>
+      </c>
+      <c r="F6" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>128</v>
+      </c>
+      <c r="H6" s="29">
+        <v>2</v>
+      </c>
+      <c r="I6" s="29">
+        <v>8</v>
+      </c>
+      <c r="J6" s="29">
+        <v>4</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L6" s="29">
+        <v>2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="N6" s="13">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O6" s="19">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="P6" s="42">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -5776,19 +8129,45 @@
       <c r="C7" s="22">
         <v>1</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="44"/>
+      <c r="D7" s="39">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E7" s="19">
+        <v>32</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="29">
+        <v>256</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1</v>
+      </c>
+      <c r="I7" s="29">
+        <v>16</v>
+      </c>
+      <c r="J7" s="29">
+        <v>512</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="L7" s="29">
+        <v>64</v>
+      </c>
+      <c r="M7" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O7" s="29">
+        <v>128</v>
+      </c>
+      <c r="P7" s="42">
+        <v>1024</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -5796,19 +8175,45 @@
       <c r="C8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="44"/>
+      <c r="D8" s="39">
+        <v>64</v>
+      </c>
+      <c r="E8" s="29">
+        <v>8</v>
+      </c>
+      <c r="F8" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G8" s="29">
+        <v>2</v>
+      </c>
+      <c r="H8" s="29">
+        <v>3</v>
+      </c>
+      <c r="I8" s="29">
+        <v>4</v>
+      </c>
+      <c r="J8" s="29">
+        <v>16</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="29">
+        <v>32</v>
+      </c>
+      <c r="M8" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="O8" s="19">
+        <v>512</v>
+      </c>
+      <c r="P8" s="42">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -5820,38 +8225,90 @@
       <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="43"/>
+      <c r="D9" s="38">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29">
+        <v>1024</v>
+      </c>
+      <c r="G9" s="29">
+        <v>256</v>
+      </c>
+      <c r="H9" s="29">
+        <v>1</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="29">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M9" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="13">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O9" s="32">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="P9" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="44"/>
+      <c r="D10" s="39">
+        <v>1024</v>
+      </c>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29">
+        <v>16</v>
+      </c>
+      <c r="G10" s="29">
+        <v>8</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="29">
+        <v>64</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M10" s="29">
+        <v>16</v>
+      </c>
+      <c r="N10" s="19">
+        <v>-2</v>
+      </c>
+      <c r="O10" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="P10" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -5861,19 +8318,45 @@
       <c r="C11" s="22">
         <v>1</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="34"/>
+      <c r="D11" s="39">
+        <v>0.125</v>
+      </c>
+      <c r="E11" s="19">
+        <v>4</v>
+      </c>
+      <c r="F11" s="29">
+        <v>32</v>
+      </c>
+      <c r="G11" s="13">
+        <v>8</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>2</v>
+      </c>
+      <c r="J11" s="29">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="29">
+        <v>256</v>
+      </c>
+      <c r="M11" s="29">
+        <v>4</v>
+      </c>
+      <c r="N11" s="13">
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="O11" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="P11" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -5881,19 +8364,45 @@
       <c r="C12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="43"/>
+      <c r="D12" s="39">
+        <v>1</v>
+      </c>
+      <c r="E12" s="29">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="I12" s="29">
+        <v>16</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="K12" s="29">
+        <v>2.6</v>
+      </c>
+      <c r="L12" s="29">
+        <v>4</v>
+      </c>
+      <c r="M12" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="N12" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="O12" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -5905,38 +8414,90 @@
       <c r="C13" s="21">
         <v>1</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="45"/>
+      <c r="D13" s="39">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E13" s="29">
+        <v>32</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G13" s="30">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>32</v>
+      </c>
+      <c r="J13" s="29">
+        <v>64</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="29">
+        <v>32</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="N13" s="13">
+        <v>-6.25E-2</v>
+      </c>
+      <c r="O13" s="29">
+        <v>16</v>
+      </c>
+      <c r="P13" s="42">
+        <v>128</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="15"/>
+      <c r="D14" s="39">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>8</v>
+      </c>
+      <c r="F14" s="29">
+        <v>8</v>
+      </c>
+      <c r="G14" s="29">
+        <v>128</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="29">
+        <v>256</v>
+      </c>
+      <c r="J14" s="29">
+        <v>32</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
+      <c r="M14" s="29">
+        <v>4</v>
+      </c>
+      <c r="N14" s="30">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>8</v>
+      </c>
+      <c r="P14" s="42">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -5946,19 +8507,45 @@
       <c r="C15" s="22">
         <v>1</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="43"/>
+      <c r="D15" s="39">
+        <v>8</v>
+      </c>
+      <c r="E15" s="29">
+        <v>256</v>
+      </c>
+      <c r="F15" s="30">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G15" s="29">
+        <v>16</v>
+      </c>
+      <c r="H15" s="29">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I15" s="29">
+        <v>64</v>
+      </c>
+      <c r="J15" s="29">
+        <v>2</v>
+      </c>
+      <c r="K15" s="19">
+        <v>2</v>
+      </c>
+      <c r="L15" s="29">
+        <v>1</v>
+      </c>
+      <c r="M15" s="29">
+        <v>1024</v>
+      </c>
+      <c r="N15" s="30">
+        <v>-32</v>
+      </c>
+      <c r="O15" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="P15" s="42">
+        <v>512</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -5966,19 +8553,45 @@
       <c r="C16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="45"/>
+      <c r="D16" s="38">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E16" s="29">
+        <v>4</v>
+      </c>
+      <c r="F16" s="29">
+        <v>64</v>
+      </c>
+      <c r="G16" s="29">
+        <v>128</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="29">
+        <v>64</v>
+      </c>
+      <c r="J16" s="32">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K16" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="L16" s="29">
+        <v>512</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2</v>
+      </c>
+      <c r="N16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O16" s="29">
+        <v>512</v>
+      </c>
+      <c r="P16" s="42">
+        <v>256</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -5990,38 +8603,90 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="45"/>
+      <c r="D17" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="29">
+        <v>2</v>
+      </c>
+      <c r="F17" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="29">
+        <v>16</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>3</v>
+      </c>
+      <c r="L17" s="29">
+        <v>128</v>
+      </c>
+      <c r="M17" s="32">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="N17" s="19">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O17" s="29">
+        <v>256</v>
+      </c>
+      <c r="P17" s="42">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="15"/>
+      <c r="D18" s="38">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="E18" s="29">
+        <v>4</v>
+      </c>
+      <c r="F18" s="29">
+        <v>16</v>
+      </c>
+      <c r="G18" s="29">
+        <v>4</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.6</v>
+      </c>
+      <c r="I18" s="29">
+        <v>1</v>
+      </c>
+      <c r="J18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K18" s="29">
+        <v>0.8</v>
+      </c>
+      <c r="L18" s="29">
+        <v>128</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="N18" s="19">
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="O18" s="29">
+        <v>512</v>
+      </c>
+      <c r="P18" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6031,19 +8696,45 @@
       <c r="C19" s="22">
         <v>1</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="44"/>
+      <c r="D19" s="39">
+        <v>512</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="29">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G19" s="29">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="I19" s="29">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29">
+        <v>8</v>
+      </c>
+      <c r="K19" s="19">
+        <v>2.6</v>
+      </c>
+      <c r="L19" s="29">
+        <v>128</v>
+      </c>
+      <c r="M19" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="N19" s="13">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O19" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="P19" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6051,19 +8742,45 @@
       <c r="C20" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="51"/>
+      <c r="D20" s="40">
+        <v>4</v>
+      </c>
+      <c r="E20" s="45">
+        <v>4</v>
+      </c>
+      <c r="F20" s="45">
+        <v>1024</v>
+      </c>
+      <c r="G20" s="45">
+        <v>2</v>
+      </c>
+      <c r="H20" s="44">
+        <v>1</v>
+      </c>
+      <c r="I20" s="45">
+        <v>4</v>
+      </c>
+      <c r="J20" s="45">
+        <v>4</v>
+      </c>
+      <c r="K20" s="44">
+        <v>2.8</v>
+      </c>
+      <c r="L20" s="45">
+        <v>256</v>
+      </c>
+      <c r="M20" s="43">
+        <v>0.25</v>
+      </c>
+      <c r="N20" s="14">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="O20" s="45">
+        <v>32</v>
+      </c>
+      <c r="P20" s="62">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
@@ -6323,7 +9040,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,69 +9050,76 @@
     <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="57"/>
+      <c r="H3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="57"/>
+      <c r="J3" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="M3" s="57"/>
+      <c r="N3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="57"/>
+      <c r="P3" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="57"/>
+      <c r="R3" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="58"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -6466,44 +9190,108 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="27"/>
+      <c r="D5" s="28">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="H5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="J5" s="63">
+        <v>0.25</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="L5" s="12">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="N5" s="27">
+        <v>-1024</v>
+      </c>
+      <c r="O5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="P5" s="28">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q5" s="27">
+        <v>1024.001</v>
+      </c>
+      <c r="R5" s="28">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S5" s="27">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="D6" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="E6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F6" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H6" s="30">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="K6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L6" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="M6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N6" s="29">
+        <v>-4</v>
+      </c>
+      <c r="O6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P6" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="Q6" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R6" s="29">
+        <v>0.125</v>
+      </c>
+      <c r="S6" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -6513,22 +9301,54 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="29"/>
+      <c r="D7" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F7" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H7" s="29">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J7" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L7" s="29">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="M7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N7" s="31">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="O7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P7" s="30">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R7" s="30">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="S7" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -6536,22 +9356,54 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="H8" s="31">
+        <v>0.125</v>
+      </c>
+      <c r="I8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="L8" s="19">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="N8" s="13">
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="O8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="Q8" s="29">
+        <v>1024.001</v>
+      </c>
+      <c r="R8" s="29">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S8" s="29">
+        <v>1024.001</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -6563,44 +9415,108 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="13"/>
+      <c r="D9" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30">
+        <v>1E-3</v>
+      </c>
+      <c r="K9" s="29">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="M9" s="29">
+        <v>1</v>
+      </c>
+      <c r="N9" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="29">
+        <v>1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="S9" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="13"/>
+      <c r="D10" s="30">
+        <v>0.999</v>
+      </c>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="29">
+        <v>1</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="K10" s="29">
+        <v>1</v>
+      </c>
+      <c r="L10" s="29">
+        <v>0.999</v>
+      </c>
+      <c r="M10" s="29">
+        <v>1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="O10" s="29">
+        <v>1</v>
+      </c>
+      <c r="P10" s="30">
+        <v>0.99</v>
+      </c>
+      <c r="Q10" s="29">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="S10" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -6610,22 +9526,54 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="13"/>
+      <c r="D11" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="E11" s="29">
+        <v>1</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.6</v>
+      </c>
+      <c r="G11" s="29">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="29">
+        <v>1</v>
+      </c>
+      <c r="J11" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+      <c r="L11" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="M11" s="29">
+        <v>1</v>
+      </c>
+      <c r="N11" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="29">
+        <v>1</v>
+      </c>
+      <c r="P11" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>1</v>
+      </c>
+      <c r="R11" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="S11" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -6633,22 +9581,54 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="13"/>
+      <c r="D12" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="29">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="29">
+        <v>1</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.9</v>
+      </c>
+      <c r="I12" s="29">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30">
+        <v>0.01</v>
+      </c>
+      <c r="M12" s="29">
+        <v>1</v>
+      </c>
+      <c r="N12" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="29">
+        <v>1</v>
+      </c>
+      <c r="P12" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>1</v>
+      </c>
+      <c r="R12" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="S12" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -6660,44 +9640,108 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="13"/>
+      <c r="D13" s="29">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="F13" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G13" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="H13" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="J13" s="13">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="L13" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M13" s="13">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="N13" s="31">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O13" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="P13" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="R13" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S13" s="29">
+        <v>256.0009765625</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="13"/>
+      <c r="D14" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="E14" s="29">
+        <v>8.0009765625</v>
+      </c>
+      <c r="F14" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="H14" s="29">
+        <v>4</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="J14" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="K14" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L14" s="13">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M14" s="29">
+        <v>16.0009765625</v>
+      </c>
+      <c r="N14" s="29">
+        <v>2</v>
+      </c>
+      <c r="O14" s="29">
+        <v>2.0009765625</v>
+      </c>
+      <c r="P14" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="R14" s="31">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0.1259765625</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
@@ -6707,22 +9751,54 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="13"/>
+      <c r="D15" s="29">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2.9296875E-3</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="19">
+        <v>32.0009765625</v>
+      </c>
+      <c r="J15" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="L15" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M15" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="N15" s="29">
+        <v>32</v>
+      </c>
+      <c r="O15" s="13">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P15" s="29">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0.2509765625</v>
+      </c>
+      <c r="R15" s="29">
+        <v>2</v>
+      </c>
+      <c r="S15" s="13">
+        <v>6.34765625E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -6730,22 +9806,54 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="29"/>
-      <c r="S16" s="13"/>
+      <c r="D16" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.1259765625</v>
+      </c>
+      <c r="F16" s="29">
+        <v>512</v>
+      </c>
+      <c r="G16" s="19">
+        <v>0.2509765625</v>
+      </c>
+      <c r="H16" s="29">
+        <v>256</v>
+      </c>
+      <c r="I16" s="29">
+        <v>512.0009765625</v>
+      </c>
+      <c r="J16" s="29">
+        <v>16</v>
+      </c>
+      <c r="K16" s="13">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="L16" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="M16" s="29">
+        <v>0.2509765625</v>
+      </c>
+      <c r="N16" s="29">
+        <v>64</v>
+      </c>
+      <c r="O16" s="31">
+        <v>3.22265625E-2</v>
+      </c>
+      <c r="P16" s="13">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="R16" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="S16" s="29">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -6757,44 +9865,108 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="D17" s="29">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="H17" s="31">
+        <v>4</v>
+      </c>
+      <c r="I17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J17" s="29">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="N17" s="29">
+        <v>-1024</v>
+      </c>
+      <c r="O17" s="13">
+        <v>8.0009765625</v>
+      </c>
+      <c r="P17" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R17" s="29">
+        <v>256</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1024.0009765625</v>
+      </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29"/>
+      <c r="D18" s="29">
+        <v>2</v>
+      </c>
+      <c r="E18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="F18" s="31">
+        <v>32</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1024.0009765625</v>
+      </c>
+      <c r="H18" s="31">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="I18" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1</v>
+      </c>
+      <c r="K18" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="L18" s="29">
+        <v>1</v>
+      </c>
+      <c r="M18" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="N18" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="O18" s="13">
+        <v>4.0009765625</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.125</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="R18" s="29">
+        <v>16</v>
+      </c>
+      <c r="S18" s="29">
+        <v>64.0009765625</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
@@ -6804,22 +9976,54 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="13"/>
+      <c r="D19" s="13">
+        <v>9.765625E-4</v>
+      </c>
+      <c r="E19" s="29">
+        <v>6.34765625E-2</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0.125</v>
+      </c>
+      <c r="G19" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="H19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I19" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="J19" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="K19" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="L19" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M19" s="29">
+        <v>4.0009765625</v>
+      </c>
+      <c r="N19" s="30">
+        <v>-0.25</v>
+      </c>
+      <c r="O19" s="13">
+        <v>-3.02734375E-2</v>
+      </c>
+      <c r="P19" s="31">
+        <v>3.125E-2</v>
+      </c>
+      <c r="Q19" s="29">
+        <v>32.0009765625</v>
+      </c>
+      <c r="R19" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S19" s="29">
+        <v>1.0009765625</v>
+      </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -6827,22 +10031,54 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="13"/>
+      <c r="D20" s="29">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29">
+        <v>1.0009765625</v>
+      </c>
+      <c r="F20" s="31">
+        <v>1.5625E-2</v>
+      </c>
+      <c r="G20" s="31">
+        <v>0.2509765625</v>
+      </c>
+      <c r="H20" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="29">
+        <v>64.0009765625</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="K20" s="29">
+        <v>128.0009765625</v>
+      </c>
+      <c r="L20" s="13">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="M20" s="13">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="N20" s="13">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="O20" s="13">
+        <v>4.8828125E-3</v>
+      </c>
+      <c r="P20" s="29">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="29">
+        <v>256.0009765625</v>
+      </c>
+      <c r="R20" s="31">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="S20" s="13">
+        <v>4.8828125E-3</v>
+      </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>

--- a/results_analysis/spark_vertebralColum_02_hold2.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3751AECF-2675-4F48-BF6F-05F68F9077D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513E232-1088-4735-9C90-109482CC5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
-    <sheet name="acc_median" sheetId="7" r:id="rId2"/>
-    <sheet name="acc_best" sheetId="11" r:id="rId3"/>
+    <sheet name="acc_best" sheetId="11" r:id="rId1"/>
+    <sheet name="acc_mean" sheetId="1" r:id="rId2"/>
+    <sheet name="acc_median" sheetId="7" r:id="rId3"/>
     <sheet name="nprot_best" sheetId="3" r:id="rId4"/>
     <sheet name="nprot_mean" sheetId="8" r:id="rId5"/>
     <sheet name="K_best" sheetId="9" r:id="rId6"/>
@@ -149,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="28">
@@ -516,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,6 +683,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,16 +713,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,11 +1070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,19 +1092,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1069,28 +1153,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="46">
-        <v>0.70294117647058796</v>
+        <v>0.81764705882352895</v>
       </c>
       <c r="E5" s="12">
-        <v>0.68882352941176495</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.73058823529411798</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.71705882352941197</v>
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0.870588235294118</v>
+      </c>
+      <c r="G5" s="64">
+        <v>0.84117647058823497</v>
       </c>
       <c r="H5" s="12">
-        <v>0.69529411764705895</v>
+        <v>0.78235294117647103</v>
       </c>
       <c r="I5" s="12">
-        <v>0.69882352941176495</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.69470588235294095</v>
-      </c>
-      <c r="K5" s="47">
-        <v>0.71294117647058797</v>
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="J5" s="64">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0.84705882352941197</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,28 +1183,28 @@
         <v>12</v>
       </c>
       <c r="D6" s="48">
-        <v>0.65764705882353003</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.746470588235294</v>
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0.86470588235294099</v>
       </c>
       <c r="F6" s="13">
-        <v>0.64294117647058802</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.73705882352941199</v>
+        <v>0.72941176470588198</v>
+      </c>
+      <c r="G6" s="66">
+        <v>0.82941176470588196</v>
       </c>
       <c r="H6" s="13">
-        <v>0.7</v>
+        <v>0.81764705882352895</v>
       </c>
       <c r="I6" s="13">
-        <v>0.74235294117647099</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.68529411764705905</v>
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="J6" s="66">
+        <v>0.870588235294118</v>
       </c>
       <c r="K6" s="15">
-        <v>0.68117647058823505</v>
+        <v>0.77647058823529402</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,29 +1215,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="48">
-        <v>0.70058823529411796</v>
+      <c r="D7" s="67">
+        <v>0.78823529411764703</v>
       </c>
       <c r="E7" s="13">
-        <v>0.621176470588235</v>
+        <v>0.72941176470588198</v>
       </c>
       <c r="F7" s="13">
-        <v>0.65058823529411802</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.64647058823529402</v>
+        <v>0.71764705882352897</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0.78823529411764703</v>
       </c>
       <c r="H7" s="13">
-        <v>0.68529411764705905</v>
+        <v>0.74117647058823499</v>
       </c>
       <c r="I7" s="13">
-        <v>0.47058823529411797</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0.71823529411764697</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.66529411764705904</v>
+        <v>0.752941176470588</v>
+      </c>
+      <c r="J7" s="66">
+        <v>0.83529411764705896</v>
+      </c>
+      <c r="K7" s="70">
+        <v>0.85294117647058798</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1163,28 +1247,28 @@
         <v>12</v>
       </c>
       <c r="D8" s="49">
-        <v>0.68352941176470605</v>
+        <v>0.77058823529411802</v>
       </c>
       <c r="E8" s="14">
-        <v>0.72470588235294098</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.69529411764705895</v>
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="F8" s="68">
+        <v>0.870588235294118</v>
       </c>
       <c r="G8" s="14">
-        <v>0.66588235294117604</v>
+        <v>0.84117647058823497</v>
       </c>
       <c r="H8" s="14">
-        <v>0.65764705882352903</v>
+        <v>0.79411764705882404</v>
       </c>
       <c r="I8" s="14">
-        <v>0.55176470588235305</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.69941176470588196</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0.67470588235294104</v>
+        <v>0.8</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.876470588235294</v>
+      </c>
+      <c r="K8" s="71">
+        <v>0.84705882352941197</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1198,28 +1282,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="51">
-        <v>0.71352941176470597</v>
-      </c>
-      <c r="E9" s="52">
-        <v>0.64823529411764702</v>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="E9" s="69">
+        <v>0.82941176470588196</v>
       </c>
       <c r="F9" s="52">
-        <v>0.70235294117647096</v>
-      </c>
-      <c r="G9" s="52">
-        <v>0.73</v>
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="G9" s="69">
+        <v>0.82941176470588196</v>
       </c>
       <c r="H9" s="52">
-        <v>0.73705882352941199</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="I9" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="52">
-        <v>0.72588235294117598</v>
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="J9" s="69">
+        <v>0.84705882352941197</v>
       </c>
       <c r="K9" s="53">
-        <v>0.70647058823529396</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1228,28 +1312,28 @@
         <v>12</v>
       </c>
       <c r="D10" s="48">
-        <v>0.754705882352941</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.72411764705882398</v>
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0.870588235294118</v>
       </c>
       <c r="F10" s="13">
-        <v>0.71764705882352997</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.73882352941176499</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.79058823529411804</v>
+        <v>0.82941176470588196</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0.870588235294118</v>
       </c>
       <c r="I10" s="13">
-        <v>0.435294117647059</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="J10" s="13">
-        <v>0.70588235294117596</v>
+        <v>0.81176470588235305</v>
       </c>
       <c r="K10" s="15">
-        <v>0.75823529411764701</v>
+        <v>0.83529411764705896</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1260,29 +1344,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="48">
-        <v>0.68117647058823505</v>
+      <c r="D11" s="67">
+        <v>0.85294117647058798</v>
       </c>
       <c r="E11" s="13">
-        <v>0.67058823529411804</v>
+        <v>0.747058823529412</v>
       </c>
       <c r="F11" s="13">
-        <v>0.66117647058823503</v>
+        <v>0.74117647058823499</v>
       </c>
       <c r="G11" s="13">
-        <v>0.69411764705882395</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.68647058823529405</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.64176470588235301</v>
+        <v>0.78235294117647103</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="I11" s="66">
+        <v>0.84705882352941197</v>
       </c>
       <c r="J11" s="13">
-        <v>0.72058823529411797</v>
+        <v>0.80588235294117705</v>
       </c>
       <c r="K11" s="15">
-        <v>0.65352941176470603</v>
+        <v>0.81176470588235305</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1292,28 +1376,28 @@
         <v>12</v>
       </c>
       <c r="D12" s="49">
-        <v>0.69</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.75705882352941201</v>
+        <v>0.77058823529411802</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0.870588235294118</v>
       </c>
       <c r="F12" s="14">
-        <v>0.68529411764705905</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="G12" s="14">
-        <v>0.72588235294117598</v>
+        <v>0.82941176470588196</v>
       </c>
       <c r="H12" s="14">
-        <v>0.754117647058824</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="I12" s="14">
-        <v>0.503529411764706</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.68470588235294105</v>
-      </c>
-      <c r="K12" s="50">
-        <v>0.76705882352941201</v>
+        <v>0.7</v>
+      </c>
+      <c r="J12" s="68">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.85882352941176499</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1327,28 +1411,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="51">
-        <v>0.65823529411764703</v>
+        <v>0.747058823529412</v>
       </c>
       <c r="E13" s="52">
-        <v>0.68470588235294105</v>
-      </c>
-      <c r="F13" s="52">
-        <v>0.72235294117647098</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0.72529411764705898</v>
-      </c>
-      <c r="H13" s="52">
-        <v>0.71588235294117697</v>
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="69">
+        <v>0.79411764705882404</v>
+      </c>
+      <c r="H13" s="69">
+        <v>0.79411764705882404</v>
       </c>
       <c r="I13" s="52">
-        <v>0.68764705882353006</v>
-      </c>
-      <c r="J13" s="52">
-        <v>0.73176470588235298</v>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0.876470588235294</v>
       </c>
       <c r="K13" s="53">
-        <v>0.68941176470588295</v>
+        <v>0.78823529411764703</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1356,29 +1440,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48">
-        <v>0.73823529411764699</v>
+      <c r="D14" s="67">
+        <v>0.86470588235294099</v>
       </c>
       <c r="E14" s="13">
-        <v>0.73352941176470599</v>
+        <v>0.81176470588235305</v>
       </c>
       <c r="F14" s="13">
-        <v>0.76176470588235301</v>
+        <v>0.82941176470588196</v>
       </c>
       <c r="G14" s="13">
-        <v>0.71411764705882397</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="H14" s="13">
-        <v>0.69411764705882395</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.77235294117647102</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.75588235294117601</v>
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="I14" s="66">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="J14" s="66">
+        <v>0.85294117647058798</v>
       </c>
       <c r="K14" s="15">
-        <v>0.71176470588235297</v>
+        <v>0.84117647058823497</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1389,29 +1473,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="48">
-        <v>0.625882352941176</v>
+      <c r="D15" s="67">
+        <v>0.84117647058823497</v>
       </c>
       <c r="E15" s="13">
-        <v>0.33588235294117602</v>
+        <v>0.71176470588235297</v>
       </c>
       <c r="F15" s="13">
-        <v>0.47294117647058798</v>
+        <v>0.81176470588235305</v>
       </c>
       <c r="G15" s="13">
-        <v>0.35823529411764699</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.55529411764705905</v>
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="H15" s="66">
+        <v>0.84117647058823497</v>
       </c>
       <c r="I15" s="13">
-        <v>0.53529411764705903</v>
+        <v>0.78235294117647103</v>
       </c>
       <c r="J15" s="13">
-        <v>0.39117647058823501</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0.49411764705882399</v>
+        <v>0.6</v>
+      </c>
+      <c r="K15" s="70">
+        <v>0.82941176470588196</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,28 +1505,28 @@
         <v>12</v>
       </c>
       <c r="D16" s="49">
-        <v>0.54058823529411804</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.40647058823529397</v>
+        <v>0.74117647058823499</v>
+      </c>
+      <c r="E16" s="68">
+        <v>0.77058823529411802</v>
       </c>
       <c r="F16" s="14">
-        <v>0.52882352941176503</v>
+        <v>0.69411764705882395</v>
       </c>
       <c r="G16" s="14">
-        <v>0.33058823529411802</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.47235294117647098</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.53647058823529403</v>
+        <v>0.65882352941176503</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.752941176470588</v>
       </c>
       <c r="J16" s="14">
-        <v>0.38764705882352901</v>
+        <v>0.65294117647058803</v>
       </c>
       <c r="K16" s="50">
-        <v>0.44411764705882401</v>
+        <v>0.67647058823529405</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1456,28 +1540,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="51">
-        <v>0.73411764705882399</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0.77235294117647102</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0.72176470588235297</v>
+        <v>0.81764705882352895</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.84117647058823497</v>
+      </c>
+      <c r="F17" s="69">
+        <v>0.84705882352941197</v>
       </c>
       <c r="G17" s="52">
-        <v>0.61764705882352899</v>
+        <v>0.75882352941176501</v>
       </c>
       <c r="H17" s="52">
-        <v>0.67588235294117704</v>
-      </c>
-      <c r="I17" s="52">
-        <v>0.72</v>
+        <v>0.75882352941176501</v>
+      </c>
+      <c r="I17" s="69">
+        <v>0.84117647058823497</v>
       </c>
       <c r="J17" s="52">
-        <v>0.65352941176470603</v>
+        <v>0.752941176470588</v>
       </c>
       <c r="K17" s="53">
-        <v>0.74294117647058799</v>
+        <v>0.79411764705882404</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1485,29 +1569,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="48">
-        <v>0.77529411764705902</v>
+      <c r="D18" s="67">
+        <v>0.82352941176470595</v>
       </c>
       <c r="E18" s="13">
-        <v>0.71411764705882397</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.68764705882353006</v>
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="F18" s="66">
+        <v>0.84117647058823497</v>
       </c>
       <c r="G18" s="13">
-        <v>0.68647058823529405</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.73058823529411798</v>
+        <v>0.80588235294117705</v>
+      </c>
+      <c r="H18" s="66">
+        <v>0.85294117647058798</v>
       </c>
       <c r="I18" s="13">
-        <v>0.58529411764705896</v>
+        <v>0.72352941176470598</v>
       </c>
       <c r="J18" s="13">
-        <v>0.70235294117647096</v>
+        <v>0.78235294117647103</v>
       </c>
       <c r="K18" s="15">
-        <v>0.73235294117647098</v>
+        <v>0.80588235294117705</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1519,28 +1603,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="48">
-        <v>0.71470588235294097</v>
+        <v>0.78823529411764703</v>
       </c>
       <c r="E19" s="13">
-        <v>0.65705882352941203</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.72352941176470598</v>
+        <v>0.81176470588235305</v>
+      </c>
+      <c r="F19" s="66">
+        <v>0.82352941176470595</v>
       </c>
       <c r="G19" s="13">
-        <v>0.67647058823529405</v>
+        <v>0.81764705882352895</v>
       </c>
       <c r="H19" s="13">
-        <v>0.66235294117647103</v>
+        <v>0.77058823529411802</v>
       </c>
       <c r="I19" s="13">
-        <v>0.63764705882352901</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.73235294117647098</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.64235294117647102</v>
+        <v>0.747058823529412</v>
+      </c>
+      <c r="J19" s="66">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="K19" s="70">
+        <v>0.82352941176470595</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,28 +1634,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="49">
-        <v>0.66058823529411803</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.71705882352941197</v>
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="68">
+        <v>0.85294117647058798</v>
       </c>
       <c r="F20" s="14">
-        <v>0.69117647058823495</v>
+        <v>0.8</v>
       </c>
       <c r="G20" s="14">
-        <v>0.68294117647058805</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.66705882352941204</v>
+        <v>0.78823529411764703</v>
+      </c>
+      <c r="H20" s="68">
+        <v>0.84705882352941197</v>
       </c>
       <c r="I20" s="14">
-        <v>0.63411764705882401</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.70882352941176496</v>
+        <v>0.71176470588235297</v>
+      </c>
+      <c r="J20" s="68">
+        <v>0.84705882352941197</v>
       </c>
       <c r="K20" s="50">
-        <v>0.70294117647058796</v>
+        <v>0.82352941176470595</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,19 +2013,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2532,19 +2616,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3120,11 +3204,939 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" activeCellId="5" sqref="D15 H15 I15 D16 F16 I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.70294117647058796</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.68882352941176495</v>
+      </c>
+      <c r="F5" s="64">
+        <v>0.73058823529411798</v>
+      </c>
+      <c r="G5" s="64">
+        <v>0.71705882352941197</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.69529411764705895</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.69882352941176495</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.69470588235294095</v>
+      </c>
+      <c r="K5" s="65">
+        <v>0.71294117647058797</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.65764705882353003</v>
+      </c>
+      <c r="E6" s="66">
+        <v>0.746470588235294</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.64294117647058802</v>
+      </c>
+      <c r="G6" s="66">
+        <v>0.73705882352941199</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="66">
+        <v>0.74235294117647099</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0.68117647058823505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67">
+        <v>0.70058823529411796</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.621176470588235</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.65058823529411802</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.64647058823529402</v>
+      </c>
+      <c r="H7" s="66">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="J7" s="66">
+        <v>0.71823529411764697</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0.66529411764705904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0.68352941176470605</v>
+      </c>
+      <c r="E8" s="68">
+        <v>0.72470588235294098</v>
+      </c>
+      <c r="F8" s="68">
+        <v>0.69529411764705895</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.66588235294117604</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.65764705882352903</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.55176470588235305</v>
+      </c>
+      <c r="J8" s="68">
+        <v>0.69941176470588196</v>
+      </c>
+      <c r="K8" s="50">
+        <v>0.67470588235294104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.71352941176470597</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0.64823529411764702</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0.70235294117647096</v>
+      </c>
+      <c r="G9" s="69">
+        <v>0.73</v>
+      </c>
+      <c r="H9" s="69">
+        <v>0.73705882352941199</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="69">
+        <v>0.72588235294117598</v>
+      </c>
+      <c r="K9" s="53">
+        <v>0.70647058823529396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="67">
+        <v>0.754705882352941</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.72411764705882398</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.71764705882352997</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.73882352941176499</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0.79058823529411804</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0.435294117647059</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.70588235294117596</v>
+      </c>
+      <c r="K10" s="70">
+        <v>0.75823529411764701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="67">
+        <v>0.68117647058823505</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.67058823529411804</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0.66117647058823503</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0.68647058823529405</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0.64176470588235301</v>
+      </c>
+      <c r="J11" s="66">
+        <v>0.72058823529411797</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0.65352941176470603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="49">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="68">
+        <v>0.75705882352941201</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.68529411764705905</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.72588235294117598</v>
+      </c>
+      <c r="H12" s="68">
+        <v>0.754117647058824</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.503529411764706</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.68470588235294105</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0.76705882352941201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="51">
+        <v>0.65823529411764703</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.68470588235294105</v>
+      </c>
+      <c r="F13" s="69">
+        <v>0.72235294117647098</v>
+      </c>
+      <c r="G13" s="69">
+        <v>0.72529411764705898</v>
+      </c>
+      <c r="H13" s="52">
+        <v>0.71588235294117697</v>
+      </c>
+      <c r="I13" s="52">
+        <v>0.68764705882353006</v>
+      </c>
+      <c r="J13" s="69">
+        <v>0.73176470588235298</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.68941176470588295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="48">
+        <v>0.73823529411764699</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.73352941176470599</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.76176470588235301</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.71411764705882397</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.69411764705882395</v>
+      </c>
+      <c r="I14" s="66">
+        <v>0.77235294117647102</v>
+      </c>
+      <c r="J14" s="66">
+        <v>0.75588235294117601</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0.71176470588235297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="67">
+        <v>0.625882352941176</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.33588235294117602</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.47294117647058798</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0.35823529411764699</v>
+      </c>
+      <c r="H15" s="66">
+        <v>0.55529411764705905</v>
+      </c>
+      <c r="I15" s="66">
+        <v>0.53529411764705903</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.39117647058823501</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.49411764705882399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="89">
+        <v>0.54058823529411804</v>
+      </c>
+      <c r="E16" s="14">
+        <v>0.40647058823529397</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0.52882352941176503</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.33058823529411802</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.47235294117647098</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.53647058823529403</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.38764705882352901</v>
+      </c>
+      <c r="K16" s="50">
+        <v>0.44411764705882401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="73">
+        <v>0.73411764705882399</v>
+      </c>
+      <c r="E17" s="69">
+        <v>0.77235294117647102</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0.72176470588235297</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0.61764705882352899</v>
+      </c>
+      <c r="H17" s="52">
+        <v>0.67588235294117704</v>
+      </c>
+      <c r="I17" s="52">
+        <v>0.72</v>
+      </c>
+      <c r="J17" s="52">
+        <v>0.65352941176470603</v>
+      </c>
+      <c r="K17" s="72">
+        <v>0.74294117647058799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="67">
+        <v>0.77529411764705902</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.71411764705882397</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.68764705882353006</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.68647058823529405</v>
+      </c>
+      <c r="H18" s="66">
+        <v>0.73058823529411798</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.58529411764705896</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.70235294117647096</v>
+      </c>
+      <c r="K18" s="70">
+        <v>0.73235294117647098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="67">
+        <v>0.71470588235294097</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.65705882352941203</v>
+      </c>
+      <c r="F19" s="66">
+        <v>0.72352941176470598</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.67647058823529405</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.66235294117647103</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.63764705882352901</v>
+      </c>
+      <c r="J19" s="66">
+        <v>0.73235294117647098</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0.64235294117647102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="49">
+        <v>0.66058823529411803</v>
+      </c>
+      <c r="E20" s="68">
+        <v>0.71705882352941197</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.69117647058823495</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.68294117647058805</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.66705882352941204</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.63411764705882401</v>
+      </c>
+      <c r="J20" s="68">
+        <v>0.70882352941176496</v>
+      </c>
+      <c r="K20" s="71">
+        <v>0.70294117647058796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E17B74-8A06-473F-B1B4-0C752BEBC712}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" activeCellId="5" sqref="D15 I15 H15 K16 D16 I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,19 +4154,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,16 +4220,16 @@
       <c r="E5" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="66">
         <v>0.76764705882352902</v>
       </c>
       <c r="G5" s="13">
         <v>0.72941176470588198</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="66">
         <v>0.71176470588235297</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="66">
         <v>0.72058823529411797</v>
       </c>
       <c r="J5" s="13">
@@ -3235,19 +4247,19 @@
       <c r="D6" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="66">
         <v>0.73529411764705899</v>
       </c>
       <c r="F6" s="13">
         <v>0.63823529411764701</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="66">
         <v>0.73235294117647098</v>
       </c>
       <c r="H6" s="13">
         <v>0.70588235294117596</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="66">
         <v>0.75588235294117601</v>
       </c>
       <c r="J6" s="13">
@@ -3265,7 +4277,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="66">
         <v>0.70588235294117596</v>
       </c>
       <c r="E7" s="13">
@@ -3274,7 +4286,7 @@
       <c r="F7" s="13">
         <v>0.67058823529411804</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="66">
         <v>0.70294117647058796</v>
       </c>
       <c r="H7" s="13">
@@ -3283,7 +4295,7 @@
       <c r="I7" s="13">
         <v>0.50882352941176501</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="66">
         <v>0.72647058823529398</v>
       </c>
       <c r="K7" s="13">
@@ -3296,13 +4308,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="66">
         <v>0.7</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="66">
         <v>0.75588235294117601</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="66">
         <v>0.70588235294117696</v>
       </c>
       <c r="G8" s="13">
@@ -3340,16 +4352,16 @@
       <c r="F9" s="13">
         <v>0.70882352941176496</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="66">
         <v>0.74117647058823499</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="66">
         <v>0.74117647058823499</v>
       </c>
       <c r="I9" s="13">
         <v>0.5</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="66">
         <v>0.74411764705882399</v>
       </c>
       <c r="K9" s="13">
@@ -3361,7 +4373,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="66">
         <v>0.75882352941176501</v>
       </c>
       <c r="E10" s="13">
@@ -3373,7 +4385,7 @@
       <c r="G10" s="13">
         <v>0.73823529411764699</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="66">
         <v>0.80294117647058805</v>
       </c>
       <c r="I10" s="13">
@@ -3382,7 +4394,7 @@
       <c r="J10" s="13">
         <v>0.72352941176470598</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="66">
         <v>0.76764705882352902</v>
       </c>
     </row>
@@ -3397,13 +4409,13 @@
       <c r="D11" s="13">
         <v>0.68823529411764695</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="66">
         <v>0.70588235294117696</v>
       </c>
       <c r="F11" s="13">
         <v>0.67352941176470604</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="66">
         <v>0.752941176470588</v>
       </c>
       <c r="H11" s="13">
@@ -3412,7 +4424,7 @@
       <c r="I11" s="13">
         <v>0.66470588235294104</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="66">
         <v>0.71764705882352897</v>
       </c>
       <c r="K11" s="13">
@@ -3428,7 +4440,7 @@
       <c r="D12" s="13">
         <v>0.72058823529411797</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="66">
         <v>0.75</v>
       </c>
       <c r="F12" s="13">
@@ -3437,7 +4449,7 @@
       <c r="G12" s="13">
         <v>0.73529411764705899</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="66">
         <v>0.76176470588235301</v>
       </c>
       <c r="I12" s="13">
@@ -3446,7 +4458,7 @@
       <c r="J12" s="13">
         <v>0.67352941176470604</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="66">
         <v>0.78235294117647103</v>
       </c>
     </row>
@@ -3466,19 +4478,19 @@
       <c r="E13" s="13">
         <v>0.7</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="66">
         <v>0.72058823529411797</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="66">
         <v>0.73529411764705899</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="66">
         <v>0.71176470588235297</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="66">
         <v>0.72352941176470598</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="66">
         <v>0.72058823529411797</v>
       </c>
       <c r="K13" s="13">
@@ -3496,7 +4508,7 @@
       <c r="E14" s="13">
         <v>0.73823529411764699</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="66">
         <v>0.77647058823529402</v>
       </c>
       <c r="G14" s="13">
@@ -3505,10 +4517,10 @@
       <c r="H14" s="13">
         <v>0.7</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="66">
         <v>0.75882352941176501</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="66">
         <v>0.752941176470588</v>
       </c>
       <c r="K14" s="13">
@@ -3523,7 +4535,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="66">
         <v>0.66470588235294104</v>
       </c>
       <c r="E15" s="13">
@@ -3535,10 +4547,10 @@
       <c r="G15" s="13">
         <v>0.34705882352941197</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="66">
         <v>0.58529411764705896</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="66">
         <v>0.52058823529411802</v>
       </c>
       <c r="J15" s="13">
@@ -3554,7 +4566,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="66">
         <v>0.53235294117647103</v>
       </c>
       <c r="E16" s="13">
@@ -3569,13 +4581,13 @@
       <c r="H16" s="13">
         <v>0.46176470588235302</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="66">
         <v>0.52352941176470602</v>
       </c>
       <c r="J16" s="13">
         <v>0.36176470588235299</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="66">
         <v>0.56470588235294095</v>
       </c>
     </row>
@@ -3592,10 +4604,10 @@
       <c r="D17" s="13">
         <v>0.72647058823529398</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="66">
         <v>0.76176470588235301</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="66">
         <v>0.76470588235294101</v>
       </c>
       <c r="G17" s="13">
@@ -3610,7 +4622,7 @@
       <c r="J17" s="13">
         <v>0.68235294117647105</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="66">
         <v>0.75588235294117601</v>
       </c>
     </row>
@@ -3619,10 +4631,10 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="66">
         <v>0.78823529411764703</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="66">
         <v>0.77058823529411802</v>
       </c>
       <c r="F18" s="13">
@@ -3640,7 +4652,7 @@
       <c r="J18" s="13">
         <v>0.71764705882352897</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="66">
         <v>0.75</v>
       </c>
     </row>
@@ -3652,13 +4664,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="66">
         <v>0.73235294117647098</v>
       </c>
       <c r="E19" s="13">
         <v>0.64411764705882402</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="66">
         <v>0.71470588235294097</v>
       </c>
       <c r="G19" s="13">
@@ -3670,7 +4682,7 @@
       <c r="I19" s="13">
         <v>0.66176470588235303</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="66">
         <v>0.73529411764705899</v>
       </c>
       <c r="K19" s="13">
@@ -3689,13 +4701,13 @@
       <c r="E20" s="13">
         <v>0.7</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="66">
         <v>0.70294117647058796</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="66">
         <v>0.70294117647058796</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="66">
         <v>0.73235294117647098</v>
       </c>
       <c r="I20" s="13">
@@ -3704,940 +4716,12 @@
       <c r="J20" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="66">
         <v>0.71470588235294097</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4279F1E-80F5-41C1-B97A-BFBE1F0D2B01}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="46">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.79411764705882404</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.78235294117647103</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.78235294117647103</v>
-      </c>
-      <c r="J5" s="12">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="K5" s="47">
-        <v>0.84705882352941197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="48">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="E6" s="13">
-        <v>0.86470588235294099</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.72941176470588198</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="J6" s="13">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0.77647058823529402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="48">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.72941176470588198</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.71764705882352897</v>
-      </c>
-      <c r="G7" s="13">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0.74117647058823499</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.752941176470588</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0.83529411764705896</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0.85294117647058798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="49">
-        <v>0.77058823529411802</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="F8" s="14">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0.79411764705882404</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.876470588235294</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0.84705882352941197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="51">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="E9" s="52">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0.79411764705882404</v>
-      </c>
-      <c r="G9" s="52">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="H9" s="52">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="I9" s="52">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="J9" s="52">
-        <v>0.84705882352941197</v>
-      </c>
-      <c r="K9" s="53">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="48">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.85294117647058798</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="J10" s="13">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="K10" s="15">
-        <v>0.83529411764705896</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="48">
-        <v>0.85294117647058798</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0.747058823529412</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.74117647058823499</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.78235294117647103</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0.84705882352941197</v>
-      </c>
-      <c r="J11" s="13">
-        <v>0.80588235294117705</v>
-      </c>
-      <c r="K11" s="15">
-        <v>0.81176470588235305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="49">
-        <v>0.77058823529411802</v>
-      </c>
-      <c r="E12" s="14">
-        <v>0.870588235294118</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0.7</v>
-      </c>
-      <c r="J12" s="14">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="K12" s="50">
-        <v>0.85882352941176499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="51">
-        <v>0.747058823529412</v>
-      </c>
-      <c r="E13" s="52">
-        <v>0.75882352941176501</v>
-      </c>
-      <c r="F13" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0.79411764705882404</v>
-      </c>
-      <c r="H13" s="52">
-        <v>0.79411764705882404</v>
-      </c>
-      <c r="I13" s="52">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="J13" s="52">
-        <v>0.876470588235294</v>
-      </c>
-      <c r="K13" s="53">
-        <v>0.78823529411764703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="48">
-        <v>0.86470588235294099</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.82941176470588196</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0.88235294117647101</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0.85294117647058798</v>
-      </c>
-      <c r="K14" s="15">
-        <v>0.84117647058823497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="48">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0.71176470588235297</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0.72352941176470598</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0.78235294117647103</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="K15" s="15">
-        <v>0.82941176470588196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="49">
-        <v>0.74117647058823499</v>
-      </c>
-      <c r="E16" s="14">
-        <v>0.77058823529411802</v>
-      </c>
-      <c r="F16" s="14">
-        <v>0.69411764705882395</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0.65882352941176503</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.75882352941176501</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0.752941176470588</v>
-      </c>
-      <c r="J16" s="14">
-        <v>0.65294117647058803</v>
-      </c>
-      <c r="K16" s="50">
-        <v>0.67647058823529405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="51">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0.84705882352941197</v>
-      </c>
-      <c r="G17" s="52">
-        <v>0.75882352941176501</v>
-      </c>
-      <c r="H17" s="52">
-        <v>0.75882352941176501</v>
-      </c>
-      <c r="I17" s="52">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="J17" s="52">
-        <v>0.752941176470588</v>
-      </c>
-      <c r="K17" s="53">
-        <v>0.79411764705882404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="48">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0.84117647058823497</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0.80588235294117705</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0.85294117647058798</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.72352941176470598</v>
-      </c>
-      <c r="J18" s="13">
-        <v>0.78235294117647103</v>
-      </c>
-      <c r="K18" s="15">
-        <v>0.80588235294117705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="48">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0.81176470588235305</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0.81764705882352895</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.77058823529411802</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.747058823529412</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.82352941176470595</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0.82352941176470595</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="49">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0.85294117647058798</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="G20" s="14">
-        <v>0.78823529411764703</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0.84705882352941197</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0.71176470588235297</v>
-      </c>
-      <c r="J20" s="14">
-        <v>0.84705882352941197</v>
-      </c>
-      <c r="K20" s="50">
-        <v>0.82352941176470595</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
@@ -4822,7 +4906,777 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D5" sqref="D5:K20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="74">
+        <v>9</v>
+      </c>
+      <c r="E5" s="75">
+        <v>18</v>
+      </c>
+      <c r="F5" s="76">
+        <v>6</v>
+      </c>
+      <c r="G5" s="76">
+        <v>8</v>
+      </c>
+      <c r="H5" s="75">
+        <v>23</v>
+      </c>
+      <c r="I5" s="75">
+        <v>112</v>
+      </c>
+      <c r="J5" s="76">
+        <v>5</v>
+      </c>
+      <c r="K5" s="77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="54">
+        <v>9</v>
+      </c>
+      <c r="E6" s="78">
+        <v>22</v>
+      </c>
+      <c r="F6" s="19">
+        <v>17</v>
+      </c>
+      <c r="G6" s="78">
+        <v>23</v>
+      </c>
+      <c r="H6" s="19">
+        <v>34</v>
+      </c>
+      <c r="I6" s="19">
+        <v>48</v>
+      </c>
+      <c r="J6" s="78">
+        <v>4</v>
+      </c>
+      <c r="K6" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="80">
+        <v>14</v>
+      </c>
+      <c r="E7" s="19">
+        <v>11</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3</v>
+      </c>
+      <c r="G7" s="78">
+        <v>3</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>100</v>
+      </c>
+      <c r="J7" s="78">
+        <v>7</v>
+      </c>
+      <c r="K7" s="81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="82">
+        <v>10</v>
+      </c>
+      <c r="E8" s="44">
+        <v>16</v>
+      </c>
+      <c r="F8" s="83">
+        <v>9</v>
+      </c>
+      <c r="G8" s="44">
+        <v>27</v>
+      </c>
+      <c r="H8" s="44">
+        <v>11</v>
+      </c>
+      <c r="I8" s="44">
+        <v>112</v>
+      </c>
+      <c r="J8" s="83">
+        <v>5</v>
+      </c>
+      <c r="K8" s="84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="85">
+        <v>3</v>
+      </c>
+      <c r="E9" s="86">
+        <v>44</v>
+      </c>
+      <c r="F9" s="35">
+        <v>29</v>
+      </c>
+      <c r="G9" s="86">
+        <v>24</v>
+      </c>
+      <c r="H9" s="35">
+        <v>4</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="86">
+        <v>5</v>
+      </c>
+      <c r="K9" s="87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="54">
+        <v>33</v>
+      </c>
+      <c r="E10" s="78">
+        <v>18</v>
+      </c>
+      <c r="F10" s="19">
+        <v>15</v>
+      </c>
+      <c r="G10" s="78">
+        <v>6</v>
+      </c>
+      <c r="H10" s="78">
+        <v>23</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>4</v>
+      </c>
+      <c r="K10" s="79">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="80">
+        <v>9</v>
+      </c>
+      <c r="E11" s="19">
+        <v>11</v>
+      </c>
+      <c r="F11" s="19">
+        <v>29</v>
+      </c>
+      <c r="G11" s="19">
+        <v>5</v>
+      </c>
+      <c r="H11" s="78">
+        <v>38</v>
+      </c>
+      <c r="I11" s="78">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>5</v>
+      </c>
+      <c r="K11" s="79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="82">
+        <v>7</v>
+      </c>
+      <c r="E12" s="83">
+        <v>16</v>
+      </c>
+      <c r="F12" s="44">
+        <v>28</v>
+      </c>
+      <c r="G12" s="44">
+        <v>26</v>
+      </c>
+      <c r="H12" s="44">
+        <v>16</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2</v>
+      </c>
+      <c r="J12" s="83">
+        <v>5</v>
+      </c>
+      <c r="K12" s="84">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="85">
+        <v>27</v>
+      </c>
+      <c r="E13" s="35">
+        <v>4</v>
+      </c>
+      <c r="F13" s="86">
+        <v>23</v>
+      </c>
+      <c r="G13" s="86">
+        <v>21</v>
+      </c>
+      <c r="H13" s="86">
+        <v>4</v>
+      </c>
+      <c r="I13" s="35">
+        <v>31</v>
+      </c>
+      <c r="J13" s="86">
+        <v>8</v>
+      </c>
+      <c r="K13" s="87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="80">
+        <v>35</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4</v>
+      </c>
+      <c r="F14" s="19">
+        <v>6</v>
+      </c>
+      <c r="G14" s="19">
+        <v>25</v>
+      </c>
+      <c r="H14" s="19">
+        <v>12</v>
+      </c>
+      <c r="I14" s="78">
+        <v>14</v>
+      </c>
+      <c r="J14" s="78">
+        <v>5</v>
+      </c>
+      <c r="K14" s="79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="80">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="78">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="82">
+        <v>2</v>
+      </c>
+      <c r="E16" s="83">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>3</v>
+      </c>
+      <c r="G16" s="44">
+        <v>2</v>
+      </c>
+      <c r="H16" s="83">
+        <v>2</v>
+      </c>
+      <c r="I16" s="83">
+        <v>2</v>
+      </c>
+      <c r="J16" s="44">
+        <v>2</v>
+      </c>
+      <c r="K16" s="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="85">
+        <v>112</v>
+      </c>
+      <c r="E17" s="86">
+        <v>82</v>
+      </c>
+      <c r="F17" s="86">
+        <v>6</v>
+      </c>
+      <c r="G17" s="35">
+        <v>66</v>
+      </c>
+      <c r="H17" s="35">
+        <v>77</v>
+      </c>
+      <c r="I17" s="86">
+        <v>3</v>
+      </c>
+      <c r="J17" s="35">
+        <v>24</v>
+      </c>
+      <c r="K17" s="87">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="80">
+        <v>108</v>
+      </c>
+      <c r="E18" s="19">
+        <v>36</v>
+      </c>
+      <c r="F18" s="78">
+        <v>23</v>
+      </c>
+      <c r="G18" s="19">
+        <v>38</v>
+      </c>
+      <c r="H18" s="78">
+        <v>50</v>
+      </c>
+      <c r="I18" s="19">
+        <v>6</v>
+      </c>
+      <c r="J18" s="19">
+        <v>7</v>
+      </c>
+      <c r="K18" s="79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="54">
+        <v>11</v>
+      </c>
+      <c r="E19" s="19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="78">
+        <v>12</v>
+      </c>
+      <c r="G19" s="19">
+        <v>23</v>
+      </c>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10</v>
+      </c>
+      <c r="J19" s="78">
+        <v>12</v>
+      </c>
+      <c r="K19" s="81">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="82">
+        <v>8</v>
+      </c>
+      <c r="E20" s="83">
+        <v>9</v>
+      </c>
+      <c r="F20" s="44">
+        <v>12</v>
+      </c>
+      <c r="G20" s="44">
+        <v>9</v>
+      </c>
+      <c r="H20" s="83">
+        <v>9</v>
+      </c>
+      <c r="I20" s="44">
+        <v>12</v>
+      </c>
+      <c r="J20" s="83">
+        <v>11</v>
+      </c>
+      <c r="K20" s="88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4840,19 +5694,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4900,29 +5754,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>9</v>
-      </c>
-      <c r="E5" s="29">
-        <v>18</v>
-      </c>
-      <c r="F5" s="29">
-        <v>6</v>
-      </c>
-      <c r="G5" s="29">
-        <v>8</v>
-      </c>
-      <c r="H5" s="29">
-        <v>23</v>
-      </c>
-      <c r="I5" s="29">
-        <v>112</v>
-      </c>
-      <c r="J5" s="29">
-        <v>5</v>
-      </c>
-      <c r="K5" s="29">
-        <v>9</v>
+      <c r="D5" s="74">
+        <v>6.1</v>
+      </c>
+      <c r="E5" s="75">
+        <v>9.1</v>
+      </c>
+      <c r="F5" s="76">
+        <v>14.6</v>
+      </c>
+      <c r="G5" s="76">
+        <v>14.2</v>
+      </c>
+      <c r="H5" s="75">
+        <v>15.5</v>
+      </c>
+      <c r="I5" s="75">
+        <v>60</v>
+      </c>
+      <c r="J5" s="76">
+        <v>7</v>
+      </c>
+      <c r="K5" s="77">
+        <v>10.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4930,29 +5784,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="54">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E6" s="78">
+        <v>27.6</v>
+      </c>
+      <c r="F6" s="19">
         <v>9</v>
       </c>
-      <c r="E6" s="29">
-        <v>22</v>
-      </c>
-      <c r="F6" s="29">
-        <v>17</v>
-      </c>
-      <c r="G6" s="29">
-        <v>23</v>
-      </c>
-      <c r="H6" s="29">
-        <v>34</v>
-      </c>
-      <c r="I6" s="29">
-        <v>48</v>
-      </c>
-      <c r="J6" s="29">
-        <v>4</v>
-      </c>
-      <c r="K6" s="29">
-        <v>3</v>
+      <c r="G6" s="78">
+        <v>18.8</v>
+      </c>
+      <c r="H6" s="19">
+        <v>21.2</v>
+      </c>
+      <c r="I6" s="19">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J6" s="78">
+        <v>7</v>
+      </c>
+      <c r="K6" s="79">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4963,29 +5817,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
-        <v>14</v>
-      </c>
-      <c r="E7" s="29">
-        <v>11</v>
-      </c>
-      <c r="F7" s="29">
-        <v>3</v>
-      </c>
-      <c r="G7" s="29">
-        <v>3</v>
-      </c>
-      <c r="H7" s="29">
-        <v>5</v>
-      </c>
-      <c r="I7" s="29">
-        <v>100</v>
-      </c>
-      <c r="J7" s="29">
-        <v>7</v>
-      </c>
-      <c r="K7" s="29">
-        <v>4</v>
+      <c r="D7" s="80">
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>10.9</v>
+      </c>
+      <c r="F7" s="19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G7" s="78">
+        <v>6.9</v>
+      </c>
+      <c r="H7" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="I7" s="19">
+        <v>29.8</v>
+      </c>
+      <c r="J7" s="78">
+        <v>6.5</v>
+      </c>
+      <c r="K7" s="81">
+        <v>13.3</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4994,29 +5848,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
-        <v>10</v>
-      </c>
-      <c r="E8" s="29">
-        <v>16</v>
-      </c>
-      <c r="F8" s="29">
-        <v>9</v>
-      </c>
-      <c r="G8" s="29">
-        <v>27</v>
-      </c>
-      <c r="H8" s="29">
-        <v>11</v>
-      </c>
-      <c r="I8" s="29">
-        <v>112</v>
-      </c>
-      <c r="J8" s="29">
-        <v>5</v>
-      </c>
-      <c r="K8" s="29">
-        <v>11</v>
+      <c r="D8" s="82">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E8" s="44">
+        <v>19.5</v>
+      </c>
+      <c r="F8" s="83">
+        <v>10.8</v>
+      </c>
+      <c r="G8" s="44">
+        <v>14.1</v>
+      </c>
+      <c r="H8" s="44">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I8" s="44">
+        <v>72.7</v>
+      </c>
+      <c r="J8" s="83">
+        <v>6.5</v>
+      </c>
+      <c r="K8" s="84">
+        <v>12.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5029,29 +5883,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
-        <v>3</v>
-      </c>
-      <c r="E9" s="29">
-        <v>44</v>
-      </c>
-      <c r="F9" s="29">
-        <v>29</v>
-      </c>
-      <c r="G9" s="29">
-        <v>24</v>
-      </c>
-      <c r="H9" s="29">
-        <v>4</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
-        <v>5</v>
-      </c>
-      <c r="K9" s="29">
-        <v>6</v>
+      <c r="D9" s="85">
+        <v>11.9</v>
+      </c>
+      <c r="E9" s="86">
+        <v>13</v>
+      </c>
+      <c r="F9" s="35">
+        <v>12.8</v>
+      </c>
+      <c r="G9" s="86">
+        <v>19.2</v>
+      </c>
+      <c r="H9" s="35">
+        <v>14.9</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="86">
+        <v>16</v>
+      </c>
+      <c r="K9" s="87">
+        <v>10.6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5059,29 +5913,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
-        <v>33</v>
-      </c>
-      <c r="E10" s="29">
-        <v>18</v>
-      </c>
-      <c r="F10" s="29">
-        <v>15</v>
-      </c>
-      <c r="G10" s="29">
-        <v>6</v>
-      </c>
-      <c r="H10" s="29">
-        <v>23</v>
-      </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
-        <v>4</v>
-      </c>
-      <c r="K10" s="29">
-        <v>33</v>
+      <c r="D10" s="54">
+        <v>15.1</v>
+      </c>
+      <c r="E10" s="78">
+        <v>16.2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="G10" s="78">
+        <v>13</v>
+      </c>
+      <c r="H10" s="78">
+        <v>27.2</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>6.3</v>
+      </c>
+      <c r="K10" s="79">
+        <v>18.899999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5092,29 +5946,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
-        <v>9</v>
-      </c>
-      <c r="E11" s="29">
-        <v>11</v>
-      </c>
-      <c r="F11" s="29">
-        <v>29</v>
-      </c>
-      <c r="G11" s="29">
-        <v>5</v>
-      </c>
-      <c r="H11" s="29">
-        <v>38</v>
-      </c>
-      <c r="I11" s="29">
-        <v>2</v>
-      </c>
-      <c r="J11" s="29">
-        <v>5</v>
-      </c>
-      <c r="K11" s="29">
-        <v>20</v>
+      <c r="D11" s="80">
+        <v>12.5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="19">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="H11" s="78">
+        <v>18.5</v>
+      </c>
+      <c r="I11" s="78">
+        <v>2</v>
+      </c>
+      <c r="J11" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K11" s="79">
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5123,29 +5977,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29">
-        <v>7</v>
-      </c>
-      <c r="E12" s="29">
-        <v>16</v>
-      </c>
-      <c r="F12" s="29">
-        <v>28</v>
-      </c>
-      <c r="G12" s="29">
-        <v>26</v>
-      </c>
-      <c r="H12" s="29">
-        <v>16</v>
-      </c>
-      <c r="I12" s="29">
-        <v>2</v>
-      </c>
-      <c r="J12" s="29">
-        <v>5</v>
-      </c>
-      <c r="K12" s="29">
-        <v>12</v>
+      <c r="D12" s="82">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="83">
+        <v>19.3</v>
+      </c>
+      <c r="F12" s="44">
+        <v>15.6</v>
+      </c>
+      <c r="G12" s="44">
+        <v>18.8</v>
+      </c>
+      <c r="H12" s="44">
+        <v>11.8</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2</v>
+      </c>
+      <c r="J12" s="83">
+        <v>9</v>
+      </c>
+      <c r="K12" s="84">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5158,29 +6012,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
-        <v>27</v>
-      </c>
-      <c r="E13" s="29">
-        <v>4</v>
-      </c>
-      <c r="F13" s="29">
-        <v>23</v>
-      </c>
-      <c r="G13" s="29">
-        <v>21</v>
-      </c>
-      <c r="H13" s="29">
-        <v>4</v>
-      </c>
-      <c r="I13" s="29">
-        <v>31</v>
-      </c>
-      <c r="J13" s="29">
-        <v>8</v>
-      </c>
-      <c r="K13" s="29">
-        <v>5</v>
+      <c r="D13" s="85">
+        <v>12.7</v>
+      </c>
+      <c r="E13" s="35">
+        <v>15.4</v>
+      </c>
+      <c r="F13" s="86">
+        <v>17.7</v>
+      </c>
+      <c r="G13" s="86">
+        <v>11.6</v>
+      </c>
+      <c r="H13" s="86">
+        <v>11.6</v>
+      </c>
+      <c r="I13" s="35">
+        <v>15.4</v>
+      </c>
+      <c r="J13" s="86">
+        <v>13.9</v>
+      </c>
+      <c r="K13" s="87">
+        <v>8.6999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5188,29 +6042,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
-        <v>35</v>
-      </c>
-      <c r="E14" s="29">
-        <v>4</v>
-      </c>
-      <c r="F14" s="29">
-        <v>6</v>
-      </c>
-      <c r="G14" s="29">
-        <v>25</v>
-      </c>
-      <c r="H14" s="29">
-        <v>12</v>
-      </c>
-      <c r="I14" s="29">
-        <v>14</v>
-      </c>
-      <c r="J14" s="29">
-        <v>5</v>
-      </c>
-      <c r="K14" s="29">
-        <v>11</v>
+      <c r="D14" s="80">
+        <v>13.7</v>
+      </c>
+      <c r="E14" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="F14" s="19">
+        <v>16.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>22.7</v>
+      </c>
+      <c r="H14" s="19">
+        <v>15.2</v>
+      </c>
+      <c r="I14" s="78">
+        <v>19</v>
+      </c>
+      <c r="J14" s="78">
+        <v>7.5</v>
+      </c>
+      <c r="K14" s="79">
+        <v>15.6</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5221,28 +6075,28 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
-        <v>2</v>
-      </c>
-      <c r="E15" s="29">
-        <v>2</v>
-      </c>
-      <c r="F15" s="29">
-        <v>2</v>
-      </c>
-      <c r="G15" s="29">
-        <v>2</v>
-      </c>
-      <c r="H15" s="29">
-        <v>2</v>
-      </c>
-      <c r="I15" s="29">
-        <v>2</v>
-      </c>
-      <c r="J15" s="29">
-        <v>2</v>
-      </c>
-      <c r="K15" s="29">
+      <c r="D15" s="80">
+        <v>2</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="19">
+        <v>2</v>
+      </c>
+      <c r="G15" s="19">
+        <v>2</v>
+      </c>
+      <c r="H15" s="78">
+        <v>2</v>
+      </c>
+      <c r="I15" s="19">
+        <v>2</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="81">
         <v>2</v>
       </c>
     </row>
@@ -5252,28 +6106,28 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29">
-        <v>2</v>
-      </c>
-      <c r="F16" s="29">
-        <v>3</v>
-      </c>
-      <c r="G16" s="29">
-        <v>2</v>
-      </c>
-      <c r="H16" s="29">
-        <v>2</v>
-      </c>
-      <c r="I16" s="29">
-        <v>2</v>
-      </c>
-      <c r="J16" s="29">
-        <v>2</v>
-      </c>
-      <c r="K16" s="29">
+      <c r="D16" s="82">
+        <v>2</v>
+      </c>
+      <c r="E16" s="83">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>4.7</v>
+      </c>
+      <c r="G16" s="44">
+        <v>2</v>
+      </c>
+      <c r="H16" s="83">
+        <v>2</v>
+      </c>
+      <c r="I16" s="83">
+        <v>2</v>
+      </c>
+      <c r="J16" s="44">
+        <v>2</v>
+      </c>
+      <c r="K16" s="88">
         <v>2</v>
       </c>
     </row>
@@ -5287,29 +6141,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
-        <v>112</v>
-      </c>
-      <c r="E17" s="29">
-        <v>82</v>
-      </c>
-      <c r="F17" s="29">
-        <v>6</v>
-      </c>
-      <c r="G17" s="29">
-        <v>66</v>
-      </c>
-      <c r="H17" s="29">
-        <v>77</v>
-      </c>
-      <c r="I17" s="29">
-        <v>3</v>
-      </c>
-      <c r="J17" s="29">
-        <v>24</v>
-      </c>
-      <c r="K17" s="29">
-        <v>78</v>
+      <c r="D17" s="85">
+        <v>75.5</v>
+      </c>
+      <c r="E17" s="86">
+        <v>98.2</v>
+      </c>
+      <c r="F17" s="86">
+        <v>15.1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>35</v>
+      </c>
+      <c r="H17" s="35">
+        <v>46.2</v>
+      </c>
+      <c r="I17" s="86">
+        <v>10.4</v>
+      </c>
+      <c r="J17" s="35">
+        <v>7.7</v>
+      </c>
+      <c r="K17" s="87">
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -5317,29 +6171,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29">
-        <v>108</v>
-      </c>
-      <c r="E18" s="29">
-        <v>36</v>
-      </c>
-      <c r="F18" s="29">
-        <v>23</v>
-      </c>
-      <c r="G18" s="29">
-        <v>38</v>
-      </c>
-      <c r="H18" s="29">
-        <v>50</v>
-      </c>
-      <c r="I18" s="29">
-        <v>6</v>
-      </c>
-      <c r="J18" s="29">
-        <v>7</v>
-      </c>
-      <c r="K18" s="29">
-        <v>17</v>
+      <c r="D18" s="80">
+        <v>91</v>
+      </c>
+      <c r="E18" s="19">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="F18" s="78">
+        <v>14.7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>42.2</v>
+      </c>
+      <c r="H18" s="78">
+        <v>53.5</v>
+      </c>
+      <c r="I18" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="J18" s="19">
+        <v>5.7</v>
+      </c>
+      <c r="K18" s="79">
+        <v>66.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -5350,29 +6204,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
-        <v>11</v>
-      </c>
-      <c r="E19" s="29">
-        <v>3</v>
-      </c>
-      <c r="F19" s="29">
+      <c r="D19" s="54">
         <v>12</v>
       </c>
-      <c r="G19" s="29">
-        <v>23</v>
-      </c>
-      <c r="H19" s="29">
-        <v>3</v>
-      </c>
-      <c r="I19" s="29">
-        <v>10</v>
-      </c>
-      <c r="J19" s="29">
-        <v>12</v>
-      </c>
-      <c r="K19" s="29">
-        <v>18</v>
+      <c r="E19" s="19">
+        <v>13.4</v>
+      </c>
+      <c r="F19" s="78">
+        <v>9.5</v>
+      </c>
+      <c r="G19" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="H19" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>10.8</v>
+      </c>
+      <c r="J19" s="78">
+        <v>9.9</v>
+      </c>
+      <c r="K19" s="81">
+        <v>6.5</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5381,29 +6235,29 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29">
-        <v>8</v>
-      </c>
-      <c r="E20" s="29">
-        <v>9</v>
-      </c>
-      <c r="F20" s="29">
-        <v>12</v>
-      </c>
-      <c r="G20" s="29">
-        <v>9</v>
-      </c>
-      <c r="H20" s="29">
-        <v>9</v>
-      </c>
-      <c r="I20" s="29">
-        <v>12</v>
-      </c>
-      <c r="J20" s="29">
-        <v>11</v>
-      </c>
-      <c r="K20" s="29">
-        <v>4</v>
+      <c r="D20" s="82">
+        <v>10.7</v>
+      </c>
+      <c r="E20" s="83">
+        <v>15.2</v>
+      </c>
+      <c r="F20" s="44">
+        <v>11.9</v>
+      </c>
+      <c r="G20" s="44">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H20" s="83">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I20" s="44">
+        <v>10</v>
+      </c>
+      <c r="J20" s="83">
+        <v>9.1</v>
+      </c>
+      <c r="K20" s="88">
+        <v>15.3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -5587,12 +6441,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5610,19 +6464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5670,29 +6524,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>9.1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>14.6</v>
-      </c>
-      <c r="G5" s="19">
-        <v>14.2</v>
-      </c>
-      <c r="H5" s="19">
-        <v>15.5</v>
-      </c>
-      <c r="I5" s="19">
-        <v>60</v>
-      </c>
-      <c r="J5" s="19">
-        <v>7</v>
-      </c>
-      <c r="K5" s="19">
-        <v>10.7</v>
+      <c r="D5" s="74">
+        <v>1</v>
+      </c>
+      <c r="E5" s="75">
+        <v>1</v>
+      </c>
+      <c r="F5" s="76">
+        <v>1</v>
+      </c>
+      <c r="G5" s="76">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1</v>
+      </c>
+      <c r="J5" s="76">
+        <v>1</v>
+      </c>
+      <c r="K5" s="77">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5700,29 +6554,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E6" s="19">
-        <v>27.6</v>
+      <c r="D6" s="54">
+        <v>2</v>
+      </c>
+      <c r="E6" s="78">
+        <v>6</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
       </c>
-      <c r="G6" s="19">
-        <v>18.8</v>
+      <c r="G6" s="78">
+        <v>7</v>
       </c>
       <c r="H6" s="19">
-        <v>21.2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="19">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="J6" s="19">
-        <v>7</v>
-      </c>
-      <c r="K6" s="19">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="J6" s="78">
+        <v>2</v>
+      </c>
+      <c r="K6" s="79">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5733,29 +6587,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
-        <v>8.5</v>
+      <c r="D7" s="80">
+        <v>1</v>
       </c>
       <c r="E7" s="19">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G7" s="19">
-        <v>6.9</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="78">
+        <v>1</v>
       </c>
       <c r="H7" s="19">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="I7" s="19">
-        <v>29.8</v>
-      </c>
-      <c r="J7" s="19">
-        <v>6.5</v>
-      </c>
-      <c r="K7" s="19">
-        <v>13.3</v>
+        <v>1</v>
+      </c>
+      <c r="J7" s="78">
+        <v>1</v>
+      </c>
+      <c r="K7" s="81">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5764,29 +6618,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E8" s="19">
-        <v>19.5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>10.8</v>
-      </c>
-      <c r="G8" s="19">
-        <v>14.1</v>
-      </c>
-      <c r="H8" s="19">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I8" s="19">
-        <v>72.7</v>
-      </c>
-      <c r="J8" s="19">
-        <v>6.5</v>
-      </c>
-      <c r="K8" s="19">
-        <v>12.6</v>
+      <c r="D8" s="82">
+        <v>3</v>
+      </c>
+      <c r="E8" s="44">
+        <v>9</v>
+      </c>
+      <c r="F8" s="83">
+        <v>6</v>
+      </c>
+      <c r="G8" s="44">
+        <v>8</v>
+      </c>
+      <c r="H8" s="44">
+        <v>7</v>
+      </c>
+      <c r="I8" s="44">
+        <v>4</v>
+      </c>
+      <c r="J8" s="83">
+        <v>4</v>
+      </c>
+      <c r="K8" s="84">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5799,29 +6653,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
-        <v>11.9</v>
-      </c>
-      <c r="E9" s="19">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19">
-        <v>12.8</v>
-      </c>
-      <c r="G9" s="19">
-        <v>19.2</v>
-      </c>
-      <c r="H9" s="19">
-        <v>14.9</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>16</v>
-      </c>
-      <c r="K9" s="19">
-        <v>10.6</v>
+      <c r="D9" s="85">
+        <v>1</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="86">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5829,29 +6683,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
-        <v>15.1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>16.2</v>
+      <c r="D10" s="54">
+        <v>8</v>
+      </c>
+      <c r="E10" s="78">
+        <v>10</v>
       </c>
       <c r="F10" s="19">
-        <v>15.2</v>
-      </c>
-      <c r="G10" s="19">
-        <v>13</v>
-      </c>
-      <c r="H10" s="19">
-        <v>27.2</v>
+        <v>7</v>
+      </c>
+      <c r="G10" s="78">
+        <v>3</v>
+      </c>
+      <c r="H10" s="78">
+        <v>3</v>
       </c>
       <c r="I10" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="K10" s="19">
-        <v>18.899999999999999</v>
+        <v>9</v>
+      </c>
+      <c r="K10" s="79">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5862,29 +6716,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
-        <v>12.5</v>
+      <c r="D11" s="80">
+        <v>1</v>
       </c>
       <c r="E11" s="19">
-        <v>6.7</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19">
-        <v>11.3</v>
-      </c>
-      <c r="H11" s="19">
-        <v>18.5</v>
-      </c>
-      <c r="I11" s="19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="78">
+        <v>1</v>
+      </c>
+      <c r="I11" s="78">
+        <v>1</v>
       </c>
       <c r="J11" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K11" s="19">
-        <v>8.5</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="79">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5893,29 +6747,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
-        <v>9.1</v>
-      </c>
-      <c r="E12" s="19">
-        <v>19.3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>15.6</v>
-      </c>
-      <c r="G12" s="19">
-        <v>18.8</v>
-      </c>
-      <c r="H12" s="19">
-        <v>11.8</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
+      <c r="D12" s="82">
         <v>9</v>
       </c>
-      <c r="K12" s="19">
-        <v>17.899999999999999</v>
+      <c r="E12" s="83">
+        <v>4</v>
+      </c>
+      <c r="F12" s="44">
+        <v>9</v>
+      </c>
+      <c r="G12" s="44">
+        <v>4</v>
+      </c>
+      <c r="H12" s="44">
+        <v>7</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2</v>
+      </c>
+      <c r="J12" s="83">
+        <v>9</v>
+      </c>
+      <c r="K12" s="84">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5928,29 +6782,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
-        <v>12.7</v>
-      </c>
-      <c r="E13" s="19">
-        <v>15.4</v>
-      </c>
-      <c r="F13" s="19">
-        <v>17.7</v>
-      </c>
-      <c r="G13" s="19">
-        <v>11.6</v>
-      </c>
-      <c r="H13" s="19">
-        <v>11.6</v>
-      </c>
-      <c r="I13" s="19">
-        <v>15.4</v>
-      </c>
-      <c r="J13" s="19">
-        <v>13.9</v>
-      </c>
-      <c r="K13" s="19">
-        <v>8.6999999999999993</v>
+      <c r="D13" s="85">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="86">
+        <v>1</v>
+      </c>
+      <c r="H13" s="86">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="86">
+        <v>1</v>
+      </c>
+      <c r="K13" s="87">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5958,29 +6812,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
-        <v>13.7</v>
+      <c r="D14" s="80">
+        <v>9</v>
       </c>
       <c r="E14" s="19">
-        <v>12.8</v>
+        <v>3</v>
       </c>
       <c r="F14" s="19">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="G14" s="19">
-        <v>22.7</v>
+        <v>5</v>
       </c>
       <c r="H14" s="19">
-        <v>15.2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>19</v>
-      </c>
-      <c r="J14" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="K14" s="19">
-        <v>15.6</v>
+        <v>5</v>
+      </c>
+      <c r="I14" s="78">
+        <v>9</v>
+      </c>
+      <c r="J14" s="78">
+        <v>9</v>
+      </c>
+      <c r="K14" s="79">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5991,29 +6845,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
-        <v>2</v>
+      <c r="D15" s="80">
+        <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="19">
-        <v>2</v>
-      </c>
-      <c r="H15" s="19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="78">
+        <v>1</v>
       </c>
       <c r="I15" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="19">
-        <v>2</v>
-      </c>
-      <c r="K15" s="19">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="81">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6022,29 +6876,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
-        <v>2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>4.7</v>
-      </c>
-      <c r="G16" s="19">
-        <v>2</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>2</v>
-      </c>
-      <c r="J16" s="19">
-        <v>2</v>
-      </c>
-      <c r="K16" s="19">
-        <v>2</v>
+      <c r="D16" s="82">
+        <v>3</v>
+      </c>
+      <c r="E16" s="83">
+        <v>2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>4</v>
+      </c>
+      <c r="G16" s="44">
+        <v>8</v>
+      </c>
+      <c r="H16" s="83">
+        <v>7</v>
+      </c>
+      <c r="I16" s="83">
+        <v>5</v>
+      </c>
+      <c r="J16" s="44">
+        <v>4</v>
+      </c>
+      <c r="K16" s="88">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6057,29 +6911,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
-        <v>75.5</v>
-      </c>
-      <c r="E17" s="19">
-        <v>98.2</v>
-      </c>
-      <c r="F17" s="19">
-        <v>15.1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>35</v>
-      </c>
-      <c r="H17" s="19">
-        <v>46.2</v>
-      </c>
-      <c r="I17" s="19">
-        <v>10.4</v>
-      </c>
-      <c r="J17" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="K17" s="19">
-        <v>75</v>
+      <c r="D17" s="85">
+        <v>1</v>
+      </c>
+      <c r="E17" s="86">
+        <v>1</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>1</v>
+      </c>
+      <c r="I17" s="86">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="87">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -6087,29 +6941,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
-        <v>91</v>
+      <c r="D18" s="80">
+        <v>6</v>
       </c>
       <c r="E18" s="19">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="F18" s="19">
-        <v>14.7</v>
+        <v>9</v>
+      </c>
+      <c r="F18" s="78">
+        <v>5</v>
       </c>
       <c r="G18" s="19">
-        <v>42.2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>53.5</v>
+        <v>9</v>
+      </c>
+      <c r="H18" s="78">
+        <v>7</v>
       </c>
       <c r="I18" s="19">
-        <v>10.8</v>
+        <v>2</v>
       </c>
       <c r="J18" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="K18" s="19">
-        <v>66.5</v>
+        <v>5</v>
+      </c>
+      <c r="K18" s="79">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6120,29 +6974,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
-        <v>12</v>
+      <c r="D19" s="54">
+        <v>1</v>
       </c>
       <c r="E19" s="19">
-        <v>13.4</v>
-      </c>
-      <c r="F19" s="19">
-        <v>9.5</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="78">
+        <v>1</v>
       </c>
       <c r="G19" s="19">
-        <v>11.3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="19">
-        <v>10.1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="19">
-        <v>10.8</v>
-      </c>
-      <c r="J19" s="19">
-        <v>9.9</v>
-      </c>
-      <c r="K19" s="19">
-        <v>6.5</v>
+        <v>1</v>
+      </c>
+      <c r="J19" s="78">
+        <v>1</v>
+      </c>
+      <c r="K19" s="81">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6151,29 +7005,29 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
-        <v>10.7</v>
-      </c>
-      <c r="E20" s="19">
-        <v>15.2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>11.9</v>
-      </c>
-      <c r="G20" s="19">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H20" s="19">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I20" s="19">
+      <c r="D20" s="82">
         <v>10</v>
       </c>
-      <c r="J20" s="19">
-        <v>9.1</v>
-      </c>
-      <c r="K20" s="19">
-        <v>15.3</v>
+      <c r="E20" s="83">
+        <v>5</v>
+      </c>
+      <c r="F20" s="44">
+        <v>8</v>
+      </c>
+      <c r="G20" s="44">
+        <v>6</v>
+      </c>
+      <c r="H20" s="83">
+        <v>5</v>
+      </c>
+      <c r="I20" s="44">
+        <v>2</v>
+      </c>
+      <c r="J20" s="83">
+        <v>8</v>
+      </c>
+      <c r="K20" s="88">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -6357,12 +7211,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6380,19 +7234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6440,28 +7294,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="D5" s="74">
+        <v>1</v>
+      </c>
+      <c r="E5" s="75">
+        <v>1</v>
+      </c>
+      <c r="F5" s="76">
+        <v>1</v>
+      </c>
+      <c r="G5" s="76">
+        <v>1</v>
+      </c>
+      <c r="H5" s="75">
+        <v>1</v>
+      </c>
+      <c r="I5" s="75">
+        <v>1</v>
+      </c>
+      <c r="J5" s="76">
+        <v>1</v>
+      </c>
+      <c r="K5" s="77">
         <v>1</v>
       </c>
     </row>
@@ -6470,29 +7324,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
-        <v>2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>6</v>
+      <c r="D6" s="54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E6" s="78">
+        <v>5.4</v>
       </c>
       <c r="F6" s="19">
-        <v>9</v>
-      </c>
-      <c r="G6" s="19">
-        <v>7</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G6" s="78">
+        <v>5.5</v>
       </c>
       <c r="H6" s="19">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="I6" s="19">
         <v>4</v>
       </c>
-      <c r="J6" s="19">
-        <v>2</v>
-      </c>
-      <c r="K6" s="19">
-        <v>2</v>
+      <c r="J6" s="78">
+        <v>4.3</v>
+      </c>
+      <c r="K6" s="79">
+        <v>4.8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6503,7 +7357,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="80">
         <v>1</v>
       </c>
       <c r="E7" s="19">
@@ -6512,7 +7366,7 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="78">
         <v>1</v>
       </c>
       <c r="H7" s="19">
@@ -6521,10 +7375,10 @@
       <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="78">
+        <v>1</v>
+      </c>
+      <c r="K7" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6534,29 +7388,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
-        <v>3</v>
-      </c>
-      <c r="E8" s="19">
-        <v>9</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="82">
+        <v>4.5</v>
+      </c>
+      <c r="E8" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="F8" s="83">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G8" s="44">
+        <v>5.8</v>
+      </c>
+      <c r="H8" s="44">
+        <v>5.8</v>
+      </c>
+      <c r="I8" s="44">
         <v>6</v>
       </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>7</v>
-      </c>
-      <c r="I8" s="19">
-        <v>4</v>
-      </c>
-      <c r="J8" s="19">
-        <v>4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>9</v>
+      <c r="J8" s="83">
+        <v>6.3</v>
+      </c>
+      <c r="K8" s="84">
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6569,28 +7423,28 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="D9" s="85">
+        <v>1</v>
+      </c>
+      <c r="E9" s="86">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35">
+        <v>1</v>
+      </c>
+      <c r="G9" s="86">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>1</v>
+      </c>
+      <c r="I9" s="35">
+        <v>1</v>
+      </c>
+      <c r="J9" s="86">
+        <v>1</v>
+      </c>
+      <c r="K9" s="87">
         <v>1</v>
       </c>
     </row>
@@ -6599,29 +7453,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19">
-        <v>10</v>
+      <c r="D10" s="54">
+        <v>6.1</v>
+      </c>
+      <c r="E10" s="78">
+        <v>7.4</v>
       </c>
       <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10" s="19">
-        <v>3</v>
-      </c>
-      <c r="H10" s="19">
-        <v>3</v>
+      <c r="G10" s="78">
+        <v>5.9</v>
+      </c>
+      <c r="H10" s="78">
+        <v>5.9</v>
       </c>
       <c r="I10" s="19">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="J10" s="19">
-        <v>9</v>
-      </c>
-      <c r="K10" s="19">
-        <v>10</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K10" s="79">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6632,7 +7486,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="80">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -6644,16 +7498,16 @@
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="H11" s="78">
+        <v>1</v>
+      </c>
+      <c r="I11" s="78">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="79">
         <v>1</v>
       </c>
     </row>
@@ -6663,29 +7517,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
-        <v>9</v>
-      </c>
-      <c r="E12" s="19">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19">
-        <v>9</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4</v>
-      </c>
-      <c r="H12" s="19">
-        <v>7</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>9</v>
-      </c>
-      <c r="K12" s="19">
-        <v>4</v>
+      <c r="D12" s="82">
+        <v>5.9</v>
+      </c>
+      <c r="E12" s="83">
+        <v>5.3</v>
+      </c>
+      <c r="F12" s="44">
+        <v>4.5</v>
+      </c>
+      <c r="G12" s="44">
+        <v>5.3</v>
+      </c>
+      <c r="H12" s="44">
+        <v>7.3</v>
+      </c>
+      <c r="I12" s="44">
+        <v>5.4</v>
+      </c>
+      <c r="J12" s="83">
+        <v>5.7</v>
+      </c>
+      <c r="K12" s="84">
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6698,28 +7552,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
+      <c r="D13" s="85">
+        <v>1</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="86">
+        <v>1</v>
+      </c>
+      <c r="G13" s="86">
+        <v>1</v>
+      </c>
+      <c r="H13" s="86">
+        <v>1</v>
+      </c>
+      <c r="I13" s="35">
+        <v>1</v>
+      </c>
+      <c r="J13" s="86">
+        <v>1</v>
+      </c>
+      <c r="K13" s="87">
         <v>1</v>
       </c>
     </row>
@@ -6728,29 +7582,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
-        <v>9</v>
+      <c r="D14" s="80">
+        <v>5</v>
       </c>
       <c r="E14" s="19">
-        <v>3</v>
+        <v>5.7</v>
       </c>
       <c r="F14" s="19">
-        <v>5</v>
+        <v>6.4</v>
       </c>
       <c r="G14" s="19">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="H14" s="19">
-        <v>5</v>
-      </c>
-      <c r="I14" s="19">
-        <v>9</v>
-      </c>
-      <c r="J14" s="19">
-        <v>9</v>
-      </c>
-      <c r="K14" s="19">
-        <v>4</v>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I14" s="78">
+        <v>6.4</v>
+      </c>
+      <c r="J14" s="78">
+        <v>6.7</v>
+      </c>
+      <c r="K14" s="79">
+        <v>6.3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6761,7 +7615,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="80">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -6773,7 +7627,7 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="78">
         <v>1</v>
       </c>
       <c r="I15" s="19">
@@ -6782,7 +7636,7 @@
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6792,29 +7646,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
-        <v>3</v>
-      </c>
-      <c r="E16" s="19">
-        <v>2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>4</v>
-      </c>
-      <c r="G16" s="19">
-        <v>8</v>
-      </c>
-      <c r="H16" s="19">
-        <v>7</v>
-      </c>
-      <c r="I16" s="19">
-        <v>5</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>10</v>
+      <c r="D16" s="82">
+        <v>6.2</v>
+      </c>
+      <c r="E16" s="83">
+        <v>5.2</v>
+      </c>
+      <c r="F16" s="44">
+        <v>4.8</v>
+      </c>
+      <c r="G16" s="44">
+        <v>7.5</v>
+      </c>
+      <c r="H16" s="83">
+        <v>7.3</v>
+      </c>
+      <c r="I16" s="83">
+        <v>6.1</v>
+      </c>
+      <c r="J16" s="44">
+        <v>6.6</v>
+      </c>
+      <c r="K16" s="88">
+        <v>5.7</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -6827,28 +7681,28 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
+      <c r="D17" s="85">
+        <v>1</v>
+      </c>
+      <c r="E17" s="86">
+        <v>1</v>
+      </c>
+      <c r="F17" s="86">
+        <v>1</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>1</v>
+      </c>
+      <c r="I17" s="86">
+        <v>1</v>
+      </c>
+      <c r="J17" s="35">
+        <v>1</v>
+      </c>
+      <c r="K17" s="87">
         <v>1</v>
       </c>
     </row>
@@ -6857,29 +7711,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="80">
+        <v>6.1</v>
+      </c>
+      <c r="E18" s="19">
         <v>6</v>
       </c>
-      <c r="E18" s="19">
-        <v>9</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5</v>
+      <c r="F18" s="78">
+        <v>5.8</v>
       </c>
       <c r="G18" s="19">
-        <v>9</v>
-      </c>
-      <c r="H18" s="19">
-        <v>7</v>
+        <v>6.4</v>
+      </c>
+      <c r="H18" s="78">
+        <v>5.9</v>
       </c>
       <c r="I18" s="19">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="J18" s="19">
-        <v>5</v>
-      </c>
-      <c r="K18" s="19">
-        <v>2</v>
+        <v>5.6</v>
+      </c>
+      <c r="K18" s="79">
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -6890,13 +7744,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="54">
         <v>1</v>
       </c>
       <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="78">
         <v>1</v>
       </c>
       <c r="G19" s="19">
@@ -6908,10 +7762,10 @@
       <c r="I19" s="19">
         <v>1</v>
       </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
+      <c r="J19" s="78">
+        <v>1</v>
+      </c>
+      <c r="K19" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6921,798 +7775,28 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
-        <v>10</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19">
-        <v>8</v>
-      </c>
-      <c r="G20" s="19">
-        <v>6</v>
-      </c>
-      <c r="H20" s="19">
-        <v>5</v>
-      </c>
-      <c r="I20" s="19">
-        <v>2</v>
-      </c>
-      <c r="J20" s="19">
-        <v>8</v>
-      </c>
-      <c r="K20" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="D20" s="82">
+        <v>6.4</v>
+      </c>
+      <c r="E20" s="83">
+        <v>6.1</v>
+      </c>
+      <c r="F20" s="44">
+        <v>5.2</v>
+      </c>
+      <c r="G20" s="44">
         <v>5.4</v>
       </c>
-      <c r="F6" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G6" s="19">
-        <v>5.5</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="H20" s="83">
+        <v>7.6</v>
+      </c>
+      <c r="I20" s="44">
         <v>6.1</v>
       </c>
-      <c r="I6" s="19">
-        <v>4</v>
-      </c>
-      <c r="J6" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="K6" s="19">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="E8" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="F8" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="G8" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="I8" s="19">
-        <v>6</v>
-      </c>
-      <c r="J8" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="K8" s="19">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="E10" s="19">
-        <v>7.4</v>
-      </c>
-      <c r="F10" s="19">
-        <v>7</v>
-      </c>
-      <c r="G10" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="I10" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="J20" s="83">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K10" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="E12" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="G12" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="H12" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="I12" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="J12" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="K12" s="19">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>5</v>
-      </c>
-      <c r="E14" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="F14" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="G14" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="H14" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I14" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="J14" s="19">
-        <v>6.7</v>
-      </c>
-      <c r="K14" s="19">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="F16" s="19">
-        <v>4.8</v>
-      </c>
-      <c r="G16" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="H16" s="19">
-        <v>7.3</v>
-      </c>
-      <c r="I16" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="K16" s="19">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="E18" s="19">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="G18" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="H18" s="19">
-        <v>5.9</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="J18" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="K18" s="19">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="E20" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="F20" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>5.4</v>
-      </c>
-      <c r="H20" s="19">
-        <v>7.6</v>
-      </c>
-      <c r="I20" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="J20" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="K20" s="88">
         <v>6.9</v>
       </c>
     </row>
@@ -7925,24 +8009,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7952,29 +8036,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="56" t="s">
+      <c r="L3" s="61"/>
+      <c r="M3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="56" t="s">
+      <c r="N3" s="61"/>
+      <c r="O3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="58"/>
+      <c r="P3" s="62"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -8036,7 +8120,7 @@
       <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="55">
         <v>2</v>
       </c>
       <c r="E5" s="35">
@@ -8603,7 +8687,7 @@
       <c r="C17" s="22">
         <v>1</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="54">
         <v>0.5</v>
       </c>
       <c r="E17" s="29">
@@ -8778,7 +8862,7 @@
       <c r="O20" s="45">
         <v>32</v>
       </c>
-      <c r="P20" s="62">
+      <c r="P20" s="56">
         <v>8</v>
       </c>
     </row>
@@ -9065,61 +9149,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="56" t="s">
+      <c r="E3" s="61"/>
+      <c r="F3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
+      <c r="K3" s="61"/>
+      <c r="L3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
+      <c r="M3" s="61"/>
+      <c r="N3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="61"/>
+      <c r="P3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="58"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9208,7 +9292,7 @@
       <c r="I5" s="27">
         <v>1024.001</v>
       </c>
-      <c r="J5" s="63">
+      <c r="J5" s="57">
         <v>0.25</v>
       </c>
       <c r="K5" s="27">

--- a/results_analysis/spark_vertebralColum_02_hold2.xlsx
+++ b/results_analysis/spark_vertebralColum_02_hold2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\MLTool_matlab\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4513E232-1088-4735-9C90-109482CC5DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0358D08-6418-4180-902E-13F3CBC045DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_best" sheetId="11" r:id="rId1"/>
@@ -695,24 +695,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,6 +771,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,19 +1092,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1158,10 +1158,10 @@
       <c r="E5" s="12">
         <v>0.79411764705882404</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="58">
         <v>0.870588235294118</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="58">
         <v>0.84117647058823497</v>
       </c>
       <c r="H5" s="12">
@@ -1170,10 +1170,10 @@
       <c r="I5" s="12">
         <v>0.78235294117647103</v>
       </c>
-      <c r="J5" s="64">
+      <c r="J5" s="58">
         <v>0.84117647058823497</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="59">
         <v>0.84705882352941197</v>
       </c>
     </row>
@@ -1185,13 +1185,13 @@
       <c r="D6" s="48">
         <v>0.81764705882352895</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="60">
         <v>0.86470588235294099</v>
       </c>
       <c r="F6" s="13">
         <v>0.72941176470588198</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="60">
         <v>0.82941176470588196</v>
       </c>
       <c r="H6" s="13">
@@ -1200,7 +1200,7 @@
       <c r="I6" s="13">
         <v>0.81764705882352895</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="60">
         <v>0.870588235294118</v>
       </c>
       <c r="K6" s="15">
@@ -1215,7 +1215,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="61">
         <v>0.78823529411764703</v>
       </c>
       <c r="E7" s="13">
@@ -1224,7 +1224,7 @@
       <c r="F7" s="13">
         <v>0.71764705882352897</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="60">
         <v>0.78823529411764703</v>
       </c>
       <c r="H7" s="13">
@@ -1233,10 +1233,10 @@
       <c r="I7" s="13">
         <v>0.752941176470588</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <v>0.83529411764705896</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="64">
         <v>0.85294117647058798</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       <c r="E8" s="14">
         <v>0.82941176470588196</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="62">
         <v>0.870588235294118</v>
       </c>
       <c r="G8" s="14">
@@ -1264,10 +1264,10 @@
       <c r="I8" s="14">
         <v>0.8</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="62">
         <v>0.876470588235294</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="65">
         <v>0.84705882352941197</v>
       </c>
     </row>
@@ -1284,13 +1284,13 @@
       <c r="D9" s="51">
         <v>0.78823529411764703</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="63">
         <v>0.82941176470588196</v>
       </c>
       <c r="F9" s="52">
         <v>0.79411764705882404</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="63">
         <v>0.82941176470588196</v>
       </c>
       <c r="H9" s="52">
@@ -1299,7 +1299,7 @@
       <c r="I9" s="52">
         <v>0.82352941176470595</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="63">
         <v>0.84705882352941197</v>
       </c>
       <c r="K9" s="53">
@@ -1314,16 +1314,16 @@
       <c r="D10" s="48">
         <v>0.82941176470588196</v>
       </c>
-      <c r="E10" s="66">
+      <c r="E10" s="60">
         <v>0.870588235294118</v>
       </c>
       <c r="F10" s="13">
         <v>0.82941176470588196</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="60">
         <v>0.85294117647058798</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="60">
         <v>0.870588235294118</v>
       </c>
       <c r="I10" s="13">
@@ -1344,7 +1344,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="61">
         <v>0.85294117647058798</v>
       </c>
       <c r="E11" s="13">
@@ -1356,10 +1356,10 @@
       <c r="G11" s="13">
         <v>0.78235294117647103</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="60">
         <v>0.81764705882352895</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="60">
         <v>0.84705882352941197</v>
       </c>
       <c r="J11" s="13">
@@ -1378,7 +1378,7 @@
       <c r="D12" s="49">
         <v>0.77058823529411802</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="62">
         <v>0.870588235294118</v>
       </c>
       <c r="F12" s="14">
@@ -1393,10 +1393,10 @@
       <c r="I12" s="14">
         <v>0.7</v>
       </c>
-      <c r="J12" s="68">
+      <c r="J12" s="62">
         <v>0.84117647058823497</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>0.85882352941176499</v>
       </c>
     </row>
@@ -1416,19 +1416,19 @@
       <c r="E13" s="52">
         <v>0.75882352941176501</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="63">
         <v>0.8</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="63">
         <v>0.79411764705882404</v>
       </c>
-      <c r="H13" s="69">
+      <c r="H13" s="63">
         <v>0.79411764705882404</v>
       </c>
       <c r="I13" s="52">
         <v>0.78823529411764703</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="63">
         <v>0.876470588235294</v>
       </c>
       <c r="K13" s="53">
@@ -1440,7 +1440,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D14" s="61">
         <v>0.86470588235294099</v>
       </c>
       <c r="E14" s="13">
@@ -1455,10 +1455,10 @@
       <c r="H14" s="13">
         <v>0.81764705882352895</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="60">
         <v>0.88235294117647101</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="60">
         <v>0.85294117647058798</v>
       </c>
       <c r="K14" s="15">
@@ -1473,7 +1473,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="61">
         <v>0.84117647058823497</v>
       </c>
       <c r="E15" s="13">
@@ -1485,7 +1485,7 @@
       <c r="G15" s="13">
         <v>0.72352941176470598</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="60">
         <v>0.84117647058823497</v>
       </c>
       <c r="I15" s="13">
@@ -1494,7 +1494,7 @@
       <c r="J15" s="13">
         <v>0.6</v>
       </c>
-      <c r="K15" s="70">
+      <c r="K15" s="64">
         <v>0.82941176470588196</v>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       <c r="D16" s="49">
         <v>0.74117647058823499</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="62">
         <v>0.77058823529411802</v>
       </c>
       <c r="F16" s="14">
@@ -1516,10 +1516,10 @@
       <c r="G16" s="14">
         <v>0.65882352941176503</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="62">
         <v>0.75882352941176501</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="62">
         <v>0.752941176470588</v>
       </c>
       <c r="J16" s="14">
@@ -1542,10 +1542,10 @@
       <c r="D17" s="51">
         <v>0.81764705882352895</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="63">
         <v>0.84117647058823497</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="63">
         <v>0.84705882352941197</v>
       </c>
       <c r="G17" s="52">
@@ -1554,7 +1554,7 @@
       <c r="H17" s="52">
         <v>0.75882352941176501</v>
       </c>
-      <c r="I17" s="69">
+      <c r="I17" s="63">
         <v>0.84117647058823497</v>
       </c>
       <c r="J17" s="52">
@@ -1569,19 +1569,19 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="61">
         <v>0.82352941176470595</v>
       </c>
       <c r="E18" s="13">
         <v>0.81176470588235305</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="60">
         <v>0.84117647058823497</v>
       </c>
       <c r="G18" s="13">
         <v>0.80588235294117705</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="60">
         <v>0.85294117647058798</v>
       </c>
       <c r="I18" s="13">
@@ -1608,7 +1608,7 @@
       <c r="E19" s="13">
         <v>0.81176470588235305</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="60">
         <v>0.82352941176470595</v>
       </c>
       <c r="G19" s="13">
@@ -1620,10 +1620,10 @@
       <c r="I19" s="13">
         <v>0.747058823529412</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="60">
         <v>0.82352941176470595</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="64">
         <v>0.82352941176470595</v>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       <c r="D20" s="49">
         <v>0.8</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="62">
         <v>0.85294117647058798</v>
       </c>
       <c r="F20" s="14">
@@ -1645,13 +1645,13 @@
       <c r="G20" s="14">
         <v>0.78823529411764703</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="62">
         <v>0.84705882352941197</v>
       </c>
       <c r="I20" s="14">
         <v>0.71176470588235297</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="62">
         <v>0.84705882352941197</v>
       </c>
       <c r="K20" s="50">
@@ -2002,7 +2002,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,19 +2013,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2605,7 +2605,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2616,19 +2616,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3207,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" activeCellId="5" sqref="D15 H15 I15 D16 F16 I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,19 +3226,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3292,10 +3292,10 @@
       <c r="E5" s="12">
         <v>0.68882352941176495</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="58">
         <v>0.73058823529411798</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="58">
         <v>0.71705882352941197</v>
       </c>
       <c r="H5" s="12">
@@ -3307,7 +3307,7 @@
       <c r="J5" s="12">
         <v>0.69470588235294095</v>
       </c>
-      <c r="K5" s="65">
+      <c r="K5" s="59">
         <v>0.71294117647058797</v>
       </c>
     </row>
@@ -3319,19 +3319,19 @@
       <c r="D6" s="48">
         <v>0.65764705882353003</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="60">
         <v>0.746470588235294</v>
       </c>
       <c r="F6" s="13">
         <v>0.64294117647058802</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="60">
         <v>0.73705882352941199</v>
       </c>
       <c r="H6" s="13">
         <v>0.7</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="60">
         <v>0.74235294117647099</v>
       </c>
       <c r="J6" s="13">
@@ -3349,7 +3349,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="61">
         <v>0.70058823529411796</v>
       </c>
       <c r="E7" s="13">
@@ -3361,13 +3361,13 @@
       <c r="G7" s="13">
         <v>0.64647058823529402</v>
       </c>
-      <c r="H7" s="66">
+      <c r="H7" s="60">
         <v>0.68529411764705905</v>
       </c>
       <c r="I7" s="13">
         <v>0.47058823529411797</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <v>0.71823529411764697</v>
       </c>
       <c r="K7" s="15">
@@ -3383,10 +3383,10 @@
       <c r="D8" s="49">
         <v>0.68352941176470605</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="62">
         <v>0.72470588235294098</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="62">
         <v>0.69529411764705895</v>
       </c>
       <c r="G8" s="14">
@@ -3398,7 +3398,7 @@
       <c r="I8" s="14">
         <v>0.55176470588235305</v>
       </c>
-      <c r="J8" s="68">
+      <c r="J8" s="62">
         <v>0.69941176470588196</v>
       </c>
       <c r="K8" s="50">
@@ -3424,16 +3424,16 @@
       <c r="F9" s="52">
         <v>0.70235294117647096</v>
       </c>
-      <c r="G9" s="69">
+      <c r="G9" s="63">
         <v>0.73</v>
       </c>
-      <c r="H9" s="69">
+      <c r="H9" s="63">
         <v>0.73705882352941199</v>
       </c>
       <c r="I9" s="52">
         <v>0.5</v>
       </c>
-      <c r="J9" s="69">
+      <c r="J9" s="63">
         <v>0.72588235294117598</v>
       </c>
       <c r="K9" s="53">
@@ -3445,7 +3445,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="61">
         <v>0.754705882352941</v>
       </c>
       <c r="E10" s="13">
@@ -3457,7 +3457,7 @@
       <c r="G10" s="13">
         <v>0.73882352941176499</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="60">
         <v>0.79058823529411804</v>
       </c>
       <c r="I10" s="13">
@@ -3466,7 +3466,7 @@
       <c r="J10" s="13">
         <v>0.70588235294117596</v>
       </c>
-      <c r="K10" s="70">
+      <c r="K10" s="64">
         <v>0.75823529411764701</v>
       </c>
     </row>
@@ -3478,7 +3478,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="61">
         <v>0.68117647058823505</v>
       </c>
       <c r="E11" s="13">
@@ -3490,13 +3490,13 @@
       <c r="G11" s="13">
         <v>0.69411764705882395</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="60">
         <v>0.68647058823529405</v>
       </c>
       <c r="I11" s="13">
         <v>0.64176470588235301</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="60">
         <v>0.72058823529411797</v>
       </c>
       <c r="K11" s="15">
@@ -3512,7 +3512,7 @@
       <c r="D12" s="49">
         <v>0.69</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="62">
         <v>0.75705882352941201</v>
       </c>
       <c r="F12" s="14">
@@ -3521,7 +3521,7 @@
       <c r="G12" s="14">
         <v>0.72588235294117598</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="62">
         <v>0.754117647058824</v>
       </c>
       <c r="I12" s="14">
@@ -3530,7 +3530,7 @@
       <c r="J12" s="14">
         <v>0.68470588235294105</v>
       </c>
-      <c r="K12" s="71">
+      <c r="K12" s="65">
         <v>0.76705882352941201</v>
       </c>
     </row>
@@ -3550,10 +3550,10 @@
       <c r="E13" s="52">
         <v>0.68470588235294105</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="63">
         <v>0.72235294117647098</v>
       </c>
-      <c r="G13" s="69">
+      <c r="G13" s="63">
         <v>0.72529411764705898</v>
       </c>
       <c r="H13" s="52">
@@ -3562,7 +3562,7 @@
       <c r="I13" s="52">
         <v>0.68764705882353006</v>
       </c>
-      <c r="J13" s="69">
+      <c r="J13" s="63">
         <v>0.73176470588235298</v>
       </c>
       <c r="K13" s="53">
@@ -3580,7 +3580,7 @@
       <c r="E14" s="13">
         <v>0.73352941176470599</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="60">
         <v>0.76176470588235301</v>
       </c>
       <c r="G14" s="13">
@@ -3589,10 +3589,10 @@
       <c r="H14" s="13">
         <v>0.69411764705882395</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="60">
         <v>0.77235294117647102</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="60">
         <v>0.75588235294117601</v>
       </c>
       <c r="K14" s="15">
@@ -3607,7 +3607,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="61">
         <v>0.625882352941176</v>
       </c>
       <c r="E15" s="13">
@@ -3619,10 +3619,10 @@
       <c r="G15" s="13">
         <v>0.35823529411764699</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="60">
         <v>0.55529411764705905</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="60">
         <v>0.53529411764705903</v>
       </c>
       <c r="J15" s="13">
@@ -3638,13 +3638,13 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16" s="83">
         <v>0.54058823529411804</v>
       </c>
       <c r="E16" s="14">
         <v>0.40647058823529397</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="62">
         <v>0.52882352941176503</v>
       </c>
       <c r="G16" s="14">
@@ -3653,7 +3653,7 @@
       <c r="H16" s="14">
         <v>0.47235294117647098</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="62">
         <v>0.53647058823529403</v>
       </c>
       <c r="J16" s="14">
@@ -3673,10 +3673,10 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="67">
         <v>0.73411764705882399</v>
       </c>
-      <c r="E17" s="69">
+      <c r="E17" s="63">
         <v>0.77235294117647102</v>
       </c>
       <c r="F17" s="52">
@@ -3694,7 +3694,7 @@
       <c r="J17" s="52">
         <v>0.65352941176470603</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="66">
         <v>0.74294117647058799</v>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="61">
         <v>0.77529411764705902</v>
       </c>
       <c r="E18" s="13">
@@ -3715,7 +3715,7 @@
       <c r="G18" s="13">
         <v>0.68647058823529405</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="60">
         <v>0.73058823529411798</v>
       </c>
       <c r="I18" s="13">
@@ -3724,7 +3724,7 @@
       <c r="J18" s="13">
         <v>0.70235294117647096</v>
       </c>
-      <c r="K18" s="70">
+      <c r="K18" s="64">
         <v>0.73235294117647098</v>
       </c>
     </row>
@@ -3736,13 +3736,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="67">
+      <c r="D19" s="61">
         <v>0.71470588235294097</v>
       </c>
       <c r="E19" s="13">
         <v>0.65705882352941203</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="60">
         <v>0.72352941176470598</v>
       </c>
       <c r="G19" s="13">
@@ -3754,7 +3754,7 @@
       <c r="I19" s="13">
         <v>0.63764705882352901</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="60">
         <v>0.73235294117647098</v>
       </c>
       <c r="K19" s="15">
@@ -3770,7 +3770,7 @@
       <c r="D20" s="49">
         <v>0.66058823529411803</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="62">
         <v>0.71705882352941197</v>
       </c>
       <c r="F20" s="14">
@@ -3785,10 +3785,10 @@
       <c r="I20" s="14">
         <v>0.63411764705882401</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="62">
         <v>0.70882352941176496</v>
       </c>
-      <c r="K20" s="71">
+      <c r="K20" s="65">
         <v>0.70294117647058796</v>
       </c>
     </row>
@@ -4135,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E17B74-8A06-473F-B1B4-0C752BEBC712}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" activeCellId="5" sqref="D15 I15 H15 K16 D16 I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4154,19 +4154,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4220,16 +4220,16 @@
       <c r="E5" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="60">
         <v>0.76764705882352902</v>
       </c>
       <c r="G5" s="13">
         <v>0.72941176470588198</v>
       </c>
-      <c r="H5" s="66">
+      <c r="H5" s="60">
         <v>0.71176470588235297</v>
       </c>
-      <c r="I5" s="66">
+      <c r="I5" s="60">
         <v>0.72058823529411797</v>
       </c>
       <c r="J5" s="13">
@@ -4247,19 +4247,19 @@
       <c r="D6" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="E6" s="66">
+      <c r="E6" s="60">
         <v>0.73529411764705899</v>
       </c>
       <c r="F6" s="13">
         <v>0.63823529411764701</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="60">
         <v>0.73235294117647098</v>
       </c>
       <c r="H6" s="13">
         <v>0.70588235294117596</v>
       </c>
-      <c r="I6" s="66">
+      <c r="I6" s="60">
         <v>0.75588235294117601</v>
       </c>
       <c r="J6" s="13">
@@ -4277,7 +4277,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="60">
         <v>0.70588235294117596</v>
       </c>
       <c r="E7" s="13">
@@ -4286,7 +4286,7 @@
       <c r="F7" s="13">
         <v>0.67058823529411804</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="60">
         <v>0.70294117647058796</v>
       </c>
       <c r="H7" s="13">
@@ -4295,7 +4295,7 @@
       <c r="I7" s="13">
         <v>0.50882352941176501</v>
       </c>
-      <c r="J7" s="66">
+      <c r="J7" s="60">
         <v>0.72647058823529398</v>
       </c>
       <c r="K7" s="13">
@@ -4308,13 +4308,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="60">
         <v>0.7</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="60">
         <v>0.75588235294117601</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="60">
         <v>0.70588235294117696</v>
       </c>
       <c r="G8" s="13">
@@ -4352,16 +4352,16 @@
       <c r="F9" s="13">
         <v>0.70882352941176496</v>
       </c>
-      <c r="G9" s="66">
+      <c r="G9" s="60">
         <v>0.74117647058823499</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="60">
         <v>0.74117647058823499</v>
       </c>
       <c r="I9" s="13">
         <v>0.5</v>
       </c>
-      <c r="J9" s="66">
+      <c r="J9" s="60">
         <v>0.74411764705882399</v>
       </c>
       <c r="K9" s="13">
@@ -4373,7 +4373,7 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="66">
+      <c r="D10" s="60">
         <v>0.75882352941176501</v>
       </c>
       <c r="E10" s="13">
@@ -4385,7 +4385,7 @@
       <c r="G10" s="13">
         <v>0.73823529411764699</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="60">
         <v>0.80294117647058805</v>
       </c>
       <c r="I10" s="13">
@@ -4394,7 +4394,7 @@
       <c r="J10" s="13">
         <v>0.72352941176470598</v>
       </c>
-      <c r="K10" s="66">
+      <c r="K10" s="60">
         <v>0.76764705882352902</v>
       </c>
     </row>
@@ -4409,13 +4409,13 @@
       <c r="D11" s="13">
         <v>0.68823529411764695</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="60">
         <v>0.70588235294117696</v>
       </c>
       <c r="F11" s="13">
         <v>0.67352941176470604</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="60">
         <v>0.752941176470588</v>
       </c>
       <c r="H11" s="13">
@@ -4424,7 +4424,7 @@
       <c r="I11" s="13">
         <v>0.66470588235294104</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="60">
         <v>0.71764705882352897</v>
       </c>
       <c r="K11" s="13">
@@ -4440,7 +4440,7 @@
       <c r="D12" s="13">
         <v>0.72058823529411797</v>
       </c>
-      <c r="E12" s="66">
+      <c r="E12" s="60">
         <v>0.75</v>
       </c>
       <c r="F12" s="13">
@@ -4449,7 +4449,7 @@
       <c r="G12" s="13">
         <v>0.73529411764705899</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="60">
         <v>0.76176470588235301</v>
       </c>
       <c r="I12" s="13">
@@ -4458,7 +4458,7 @@
       <c r="J12" s="13">
         <v>0.67352941176470604</v>
       </c>
-      <c r="K12" s="66">
+      <c r="K12" s="60">
         <v>0.78235294117647103</v>
       </c>
     </row>
@@ -4478,19 +4478,19 @@
       <c r="E13" s="13">
         <v>0.7</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="60">
         <v>0.72058823529411797</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="60">
         <v>0.73529411764705899</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="60">
         <v>0.71176470588235297</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="60">
         <v>0.72352941176470598</v>
       </c>
-      <c r="J13" s="66">
+      <c r="J13" s="60">
         <v>0.72058823529411797</v>
       </c>
       <c r="K13" s="13">
@@ -4508,7 +4508,7 @@
       <c r="E14" s="13">
         <v>0.73823529411764699</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="60">
         <v>0.77647058823529402</v>
       </c>
       <c r="G14" s="13">
@@ -4517,10 +4517,10 @@
       <c r="H14" s="13">
         <v>0.7</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="60">
         <v>0.75882352941176501</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="60">
         <v>0.752941176470588</v>
       </c>
       <c r="K14" s="13">
@@ -4535,7 +4535,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="60">
         <v>0.66470588235294104</v>
       </c>
       <c r="E15" s="13">
@@ -4547,10 +4547,10 @@
       <c r="G15" s="13">
         <v>0.34705882352941197</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="60">
         <v>0.58529411764705896</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="60">
         <v>0.52058823529411802</v>
       </c>
       <c r="J15" s="13">
@@ -4566,7 +4566,7 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="66">
+      <c r="D16" s="60">
         <v>0.53235294117647103</v>
       </c>
       <c r="E16" s="13">
@@ -4581,13 +4581,13 @@
       <c r="H16" s="13">
         <v>0.46176470588235302</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="60">
         <v>0.52352941176470602</v>
       </c>
       <c r="J16" s="13">
         <v>0.36176470588235299</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="60">
         <v>0.56470588235294095</v>
       </c>
     </row>
@@ -4604,10 +4604,10 @@
       <c r="D17" s="13">
         <v>0.72647058823529398</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="60">
         <v>0.76176470588235301</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="60">
         <v>0.76470588235294101</v>
       </c>
       <c r="G17" s="13">
@@ -4622,7 +4622,7 @@
       <c r="J17" s="13">
         <v>0.68235294117647105</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="60">
         <v>0.75588235294117601</v>
       </c>
     </row>
@@ -4631,10 +4631,10 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="66">
+      <c r="D18" s="60">
         <v>0.78823529411764703</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="60">
         <v>0.77058823529411802</v>
       </c>
       <c r="F18" s="13">
@@ -4652,7 +4652,7 @@
       <c r="J18" s="13">
         <v>0.71764705882352897</v>
       </c>
-      <c r="K18" s="66">
+      <c r="K18" s="60">
         <v>0.75</v>
       </c>
     </row>
@@ -4664,13 +4664,13 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="66">
+      <c r="D19" s="60">
         <v>0.73235294117647098</v>
       </c>
       <c r="E19" s="13">
         <v>0.64411764705882402</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="60">
         <v>0.71470588235294097</v>
       </c>
       <c r="G19" s="13">
@@ -4682,7 +4682,7 @@
       <c r="I19" s="13">
         <v>0.66176470588235303</v>
       </c>
-      <c r="J19" s="66">
+      <c r="J19" s="60">
         <v>0.73529411764705899</v>
       </c>
       <c r="K19" s="13">
@@ -4701,13 +4701,13 @@
       <c r="E20" s="13">
         <v>0.7</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="60">
         <v>0.70294117647058796</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="60">
         <v>0.70294117647058796</v>
       </c>
-      <c r="H20" s="66">
+      <c r="H20" s="60">
         <v>0.73235294117647098</v>
       </c>
       <c r="I20" s="13">
@@ -4716,7 +4716,7 @@
       <c r="J20" s="13">
         <v>0.67941176470588205</v>
       </c>
-      <c r="K20" s="66">
+      <c r="K20" s="60">
         <v>0.71470588235294097</v>
       </c>
     </row>
@@ -4906,7 +4906,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4924,19 +4924,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4984,28 +4984,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="68">
         <v>9</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="69">
         <v>18</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="70">
         <v>6</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="70">
         <v>8</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="69">
         <v>23</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="69">
         <v>112</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="70">
         <v>5</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="71">
         <v>9</v>
       </c>
     </row>
@@ -5017,13 +5017,13 @@
       <c r="D6" s="54">
         <v>9</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>22</v>
       </c>
       <c r="F6" s="19">
         <v>17</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="72">
         <v>23</v>
       </c>
       <c r="H6" s="19">
@@ -5032,10 +5032,10 @@
       <c r="I6" s="19">
         <v>48</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>4</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="73">
         <v>3</v>
       </c>
     </row>
@@ -5047,7 +5047,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="74">
         <v>14</v>
       </c>
       <c r="E7" s="19">
@@ -5056,7 +5056,7 @@
       <c r="F7" s="19">
         <v>3</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="72">
         <v>3</v>
       </c>
       <c r="H7" s="19">
@@ -5065,10 +5065,10 @@
       <c r="I7" s="19">
         <v>100</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="72">
         <v>7</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="75">
         <v>4</v>
       </c>
     </row>
@@ -5078,13 +5078,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="76">
         <v>10</v>
       </c>
       <c r="E8" s="44">
         <v>16</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="77">
         <v>9</v>
       </c>
       <c r="G8" s="44">
@@ -5096,10 +5096,10 @@
       <c r="I8" s="44">
         <v>112</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="77">
         <v>5</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="78">
         <v>11</v>
       </c>
     </row>
@@ -5113,16 +5113,16 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="79">
         <v>3</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="80">
         <v>44</v>
       </c>
       <c r="F9" s="35">
         <v>29</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="80">
         <v>24</v>
       </c>
       <c r="H9" s="35">
@@ -5131,10 +5131,10 @@
       <c r="I9" s="35">
         <v>1</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="80">
         <v>5</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="81">
         <v>6</v>
       </c>
     </row>
@@ -5146,16 +5146,16 @@
       <c r="D10" s="54">
         <v>33</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>18</v>
       </c>
       <c r="F10" s="19">
         <v>15</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="72">
         <v>6</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="72">
         <v>23</v>
       </c>
       <c r="I10" s="19">
@@ -5164,7 +5164,7 @@
       <c r="J10" s="19">
         <v>4</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="73">
         <v>33</v>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="74">
         <v>9</v>
       </c>
       <c r="E11" s="19">
@@ -5188,16 +5188,16 @@
       <c r="G11" s="19">
         <v>5</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="72">
         <v>38</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="72">
         <v>2</v>
       </c>
       <c r="J11" s="19">
         <v>5</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="73">
         <v>20</v>
       </c>
     </row>
@@ -5207,10 +5207,10 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="76">
         <v>7</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="77">
         <v>16</v>
       </c>
       <c r="F12" s="44">
@@ -5225,10 +5225,10 @@
       <c r="I12" s="44">
         <v>2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="77">
         <v>5</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="78">
         <v>12</v>
       </c>
     </row>
@@ -5242,28 +5242,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="79">
         <v>27</v>
       </c>
       <c r="E13" s="35">
         <v>4</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="80">
         <v>23</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="80">
         <v>21</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="80">
         <v>4</v>
       </c>
       <c r="I13" s="35">
         <v>31</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="80">
         <v>8</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="81">
         <v>5</v>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="74">
         <v>35</v>
       </c>
       <c r="E14" s="19">
@@ -5287,13 +5287,13 @@
       <c r="H14" s="19">
         <v>12</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="72">
         <v>14</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>5</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="73">
         <v>11</v>
       </c>
     </row>
@@ -5305,7 +5305,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="74">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -5317,7 +5317,7 @@
       <c r="G15" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="72">
         <v>2</v>
       </c>
       <c r="I15" s="19">
@@ -5326,7 +5326,7 @@
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="75">
         <v>2</v>
       </c>
     </row>
@@ -5336,10 +5336,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="82">
-        <v>2</v>
-      </c>
-      <c r="E16" s="83">
+      <c r="D16" s="76">
+        <v>2</v>
+      </c>
+      <c r="E16" s="77">
         <v>2</v>
       </c>
       <c r="F16" s="44">
@@ -5348,16 +5348,16 @@
       <c r="G16" s="44">
         <v>2</v>
       </c>
-      <c r="H16" s="83">
-        <v>2</v>
-      </c>
-      <c r="I16" s="83">
+      <c r="H16" s="77">
+        <v>2</v>
+      </c>
+      <c r="I16" s="77">
         <v>2</v>
       </c>
       <c r="J16" s="44">
         <v>2</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="82">
         <v>2</v>
       </c>
     </row>
@@ -5371,13 +5371,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="79">
         <v>112</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="80">
         <v>82</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="80">
         <v>6</v>
       </c>
       <c r="G17" s="35">
@@ -5386,13 +5386,13 @@
       <c r="H17" s="35">
         <v>77</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="80">
         <v>3</v>
       </c>
       <c r="J17" s="35">
         <v>24</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="81">
         <v>78</v>
       </c>
     </row>
@@ -5401,19 +5401,19 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="74">
         <v>108</v>
       </c>
       <c r="E18" s="19">
         <v>36</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>23</v>
       </c>
       <c r="G18" s="19">
         <v>38</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="72">
         <v>50</v>
       </c>
       <c r="I18" s="19">
@@ -5422,7 +5422,7 @@
       <c r="J18" s="19">
         <v>7</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="73">
         <v>17</v>
       </c>
     </row>
@@ -5440,7 +5440,7 @@
       <c r="E19" s="19">
         <v>3</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="72">
         <v>12</v>
       </c>
       <c r="G19" s="19">
@@ -5452,10 +5452,10 @@
       <c r="I19" s="19">
         <v>10</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="72">
         <v>12</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="75">
         <v>18</v>
       </c>
     </row>
@@ -5465,10 +5465,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="76">
         <v>8</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="77">
         <v>9</v>
       </c>
       <c r="F20" s="44">
@@ -5477,16 +5477,16 @@
       <c r="G20" s="44">
         <v>9</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="77">
         <v>9</v>
       </c>
       <c r="I20" s="44">
         <v>12</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="77">
         <v>11</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="82">
         <v>4</v>
       </c>
     </row>
@@ -5676,7 +5676,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,19 +5694,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5754,28 +5754,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="74">
+      <c r="D5" s="68">
         <v>6.1</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="69">
         <v>9.1</v>
       </c>
-      <c r="F5" s="76">
+      <c r="F5" s="70">
         <v>14.6</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="70">
         <v>14.2</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="69">
         <v>15.5</v>
       </c>
-      <c r="I5" s="75">
+      <c r="I5" s="69">
         <v>60</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="70">
         <v>7</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="71">
         <v>10.7</v>
       </c>
     </row>
@@ -5787,13 +5787,13 @@
       <c r="D6" s="54">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>27.6</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="72">
         <v>18.8</v>
       </c>
       <c r="H6" s="19">
@@ -5802,10 +5802,10 @@
       <c r="I6" s="19">
         <v>74.400000000000006</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>7</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="73">
         <v>19</v>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="74">
         <v>8.5</v>
       </c>
       <c r="E7" s="19">
@@ -5826,7 +5826,7 @@
       <c r="F7" s="19">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="72">
         <v>6.9</v>
       </c>
       <c r="H7" s="19">
@@ -5835,10 +5835,10 @@
       <c r="I7" s="19">
         <v>29.8</v>
       </c>
-      <c r="J7" s="78">
+      <c r="J7" s="72">
         <v>6.5</v>
       </c>
-      <c r="K7" s="81">
+      <c r="K7" s="75">
         <v>13.3</v>
       </c>
     </row>
@@ -5848,13 +5848,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="76">
         <v>10.199999999999999</v>
       </c>
       <c r="E8" s="44">
         <v>19.5</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="77">
         <v>10.8</v>
       </c>
       <c r="G8" s="44">
@@ -5866,10 +5866,10 @@
       <c r="I8" s="44">
         <v>72.7</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="77">
         <v>6.5</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="78">
         <v>12.6</v>
       </c>
     </row>
@@ -5883,16 +5883,16 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="85">
+      <c r="D9" s="79">
         <v>11.9</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="80">
         <v>13</v>
       </c>
       <c r="F9" s="35">
         <v>12.8</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="80">
         <v>19.2</v>
       </c>
       <c r="H9" s="35">
@@ -5901,10 +5901,10 @@
       <c r="I9" s="35">
         <v>1</v>
       </c>
-      <c r="J9" s="86">
+      <c r="J9" s="80">
         <v>16</v>
       </c>
-      <c r="K9" s="87">
+      <c r="K9" s="81">
         <v>10.6</v>
       </c>
     </row>
@@ -5916,16 +5916,16 @@
       <c r="D10" s="54">
         <v>15.1</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>16.2</v>
       </c>
       <c r="F10" s="19">
         <v>15.2</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="72">
         <v>13</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="72">
         <v>27.2</v>
       </c>
       <c r="I10" s="19">
@@ -5934,7 +5934,7 @@
       <c r="J10" s="19">
         <v>6.3</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="73">
         <v>18.899999999999999</v>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="74">
         <v>12.5</v>
       </c>
       <c r="E11" s="19">
@@ -5958,16 +5958,16 @@
       <c r="G11" s="19">
         <v>11.3</v>
       </c>
-      <c r="H11" s="78">
+      <c r="H11" s="72">
         <v>18.5</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="72">
         <v>2</v>
       </c>
       <c r="J11" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="73">
         <v>8.5</v>
       </c>
     </row>
@@ -5977,10 +5977,10 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="76">
         <v>9.1</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="77">
         <v>19.3</v>
       </c>
       <c r="F12" s="44">
@@ -5995,10 +5995,10 @@
       <c r="I12" s="44">
         <v>2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="77">
         <v>9</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="78">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -6012,28 +6012,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="79">
         <v>12.7</v>
       </c>
       <c r="E13" s="35">
         <v>15.4</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="80">
         <v>17.7</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="80">
         <v>11.6</v>
       </c>
-      <c r="H13" s="86">
+      <c r="H13" s="80">
         <v>11.6</v>
       </c>
       <c r="I13" s="35">
         <v>15.4</v>
       </c>
-      <c r="J13" s="86">
+      <c r="J13" s="80">
         <v>13.9</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="81">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="74">
         <v>13.7</v>
       </c>
       <c r="E14" s="19">
@@ -6057,13 +6057,13 @@
       <c r="H14" s="19">
         <v>15.2</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="72">
         <v>19</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>7.5</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="73">
         <v>15.6</v>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="74">
         <v>2</v>
       </c>
       <c r="E15" s="19">
@@ -6087,7 +6087,7 @@
       <c r="G15" s="19">
         <v>2</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="72">
         <v>2</v>
       </c>
       <c r="I15" s="19">
@@ -6096,7 +6096,7 @@
       <c r="J15" s="19">
         <v>2</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="75">
         <v>2</v>
       </c>
     </row>
@@ -6106,10 +6106,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="82">
-        <v>2</v>
-      </c>
-      <c r="E16" s="83">
+      <c r="D16" s="76">
+        <v>2</v>
+      </c>
+      <c r="E16" s="77">
         <v>2</v>
       </c>
       <c r="F16" s="44">
@@ -6118,16 +6118,16 @@
       <c r="G16" s="44">
         <v>2</v>
       </c>
-      <c r="H16" s="83">
-        <v>2</v>
-      </c>
-      <c r="I16" s="83">
+      <c r="H16" s="77">
+        <v>2</v>
+      </c>
+      <c r="I16" s="77">
         <v>2</v>
       </c>
       <c r="J16" s="44">
         <v>2</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="82">
         <v>2</v>
       </c>
     </row>
@@ -6141,13 +6141,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="79">
         <v>75.5</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="80">
         <v>98.2</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="80">
         <v>15.1</v>
       </c>
       <c r="G17" s="35">
@@ -6156,13 +6156,13 @@
       <c r="H17" s="35">
         <v>46.2</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="80">
         <v>10.4</v>
       </c>
       <c r="J17" s="35">
         <v>7.7</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="81">
         <v>75</v>
       </c>
     </row>
@@ -6171,19 +6171,19 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="74">
         <v>91</v>
       </c>
       <c r="E18" s="19">
         <v>68.599999999999994</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>14.7</v>
       </c>
       <c r="G18" s="19">
         <v>42.2</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="72">
         <v>53.5</v>
       </c>
       <c r="I18" s="19">
@@ -6192,7 +6192,7 @@
       <c r="J18" s="19">
         <v>5.7</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="73">
         <v>66.5</v>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       <c r="E19" s="19">
         <v>13.4</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="72">
         <v>9.5</v>
       </c>
       <c r="G19" s="19">
@@ -6222,10 +6222,10 @@
       <c r="I19" s="19">
         <v>10.8</v>
       </c>
-      <c r="J19" s="78">
+      <c r="J19" s="72">
         <v>9.9</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K19" s="75">
         <v>6.5</v>
       </c>
     </row>
@@ -6235,10 +6235,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="76">
         <v>10.7</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="77">
         <v>15.2</v>
       </c>
       <c r="F20" s="44">
@@ -6247,16 +6247,16 @@
       <c r="G20" s="44">
         <v>17.399999999999999</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="77">
         <v>10.199999999999999</v>
       </c>
       <c r="I20" s="44">
         <v>10</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="77">
         <v>9.1</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="82">
         <v>15.3</v>
       </c>
     </row>
@@ -6446,7 +6446,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6464,19 +6464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6524,28 +6524,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="74">
-        <v>1</v>
-      </c>
-      <c r="E5" s="75">
-        <v>1</v>
-      </c>
-      <c r="F5" s="76">
-        <v>1</v>
-      </c>
-      <c r="G5" s="76">
-        <v>1</v>
-      </c>
-      <c r="H5" s="75">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75">
-        <v>1</v>
-      </c>
-      <c r="J5" s="76">
-        <v>1</v>
-      </c>
-      <c r="K5" s="77">
+      <c r="D5" s="68">
+        <v>1</v>
+      </c>
+      <c r="E5" s="69">
+        <v>1</v>
+      </c>
+      <c r="F5" s="70">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70">
+        <v>1</v>
+      </c>
+      <c r="H5" s="69">
+        <v>1</v>
+      </c>
+      <c r="I5" s="69">
+        <v>1</v>
+      </c>
+      <c r="J5" s="70">
+        <v>1</v>
+      </c>
+      <c r="K5" s="71">
         <v>1</v>
       </c>
     </row>
@@ -6557,13 +6557,13 @@
       <c r="D6" s="54">
         <v>2</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>6</v>
       </c>
       <c r="F6" s="19">
         <v>9</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="72">
         <v>7</v>
       </c>
       <c r="H6" s="19">
@@ -6572,10 +6572,10 @@
       <c r="I6" s="19">
         <v>4</v>
       </c>
-      <c r="J6" s="78">
-        <v>2</v>
-      </c>
-      <c r="K6" s="79">
+      <c r="J6" s="72">
+        <v>2</v>
+      </c>
+      <c r="K6" s="73">
         <v>2</v>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="74">
         <v>1</v>
       </c>
       <c r="E7" s="19">
@@ -6596,7 +6596,7 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="72">
         <v>1</v>
       </c>
       <c r="H7" s="19">
@@ -6605,10 +6605,10 @@
       <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="78">
-        <v>1</v>
-      </c>
-      <c r="K7" s="81">
+      <c r="J7" s="72">
+        <v>1</v>
+      </c>
+      <c r="K7" s="75">
         <v>1</v>
       </c>
     </row>
@@ -6618,13 +6618,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="76">
         <v>3</v>
       </c>
       <c r="E8" s="44">
         <v>9</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="77">
         <v>6</v>
       </c>
       <c r="G8" s="44">
@@ -6636,10 +6636,10 @@
       <c r="I8" s="44">
         <v>4</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="77">
         <v>4</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="78">
         <v>9</v>
       </c>
     </row>
@@ -6653,16 +6653,16 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="85">
-        <v>1</v>
-      </c>
-      <c r="E9" s="86">
+      <c r="D9" s="79">
+        <v>1</v>
+      </c>
+      <c r="E9" s="80">
         <v>1</v>
       </c>
       <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="80">
         <v>1</v>
       </c>
       <c r="H9" s="35">
@@ -6671,10 +6671,10 @@
       <c r="I9" s="35">
         <v>1</v>
       </c>
-      <c r="J9" s="86">
-        <v>1</v>
-      </c>
-      <c r="K9" s="87">
+      <c r="J9" s="80">
+        <v>1</v>
+      </c>
+      <c r="K9" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6686,16 +6686,16 @@
       <c r="D10" s="54">
         <v>8</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>10</v>
       </c>
       <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="72">
         <v>3</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="72">
         <v>3</v>
       </c>
       <c r="I10" s="19">
@@ -6704,7 +6704,7 @@
       <c r="J10" s="19">
         <v>9</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="73">
         <v>10</v>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="74">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -6728,16 +6728,16 @@
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="78">
-        <v>1</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="H11" s="72">
+        <v>1</v>
+      </c>
+      <c r="I11" s="72">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="73">
         <v>1</v>
       </c>
     </row>
@@ -6747,10 +6747,10 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="76">
         <v>9</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="77">
         <v>4</v>
       </c>
       <c r="F12" s="44">
@@ -6765,10 +6765,10 @@
       <c r="I12" s="44">
         <v>2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="77">
         <v>9</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="78">
         <v>4</v>
       </c>
     </row>
@@ -6782,28 +6782,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="79">
         <v>1</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
       </c>
-      <c r="F13" s="86">
-        <v>1</v>
-      </c>
-      <c r="G13" s="86">
-        <v>1</v>
-      </c>
-      <c r="H13" s="86">
+      <c r="F13" s="80">
+        <v>1</v>
+      </c>
+      <c r="G13" s="80">
+        <v>1</v>
+      </c>
+      <c r="H13" s="80">
         <v>1</v>
       </c>
       <c r="I13" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="86">
-        <v>1</v>
-      </c>
-      <c r="K13" s="87">
+      <c r="J13" s="80">
+        <v>1</v>
+      </c>
+      <c r="K13" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6812,7 +6812,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="74">
         <v>9</v>
       </c>
       <c r="E14" s="19">
@@ -6827,13 +6827,13 @@
       <c r="H14" s="19">
         <v>5</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="72">
         <v>9</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>9</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="73">
         <v>4</v>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="74">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -6857,7 +6857,7 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="72">
         <v>1</v>
       </c>
       <c r="I15" s="19">
@@ -6866,7 +6866,7 @@
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="75">
         <v>1</v>
       </c>
     </row>
@@ -6876,10 +6876,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="76">
         <v>3</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="77">
         <v>2</v>
       </c>
       <c r="F16" s="44">
@@ -6888,16 +6888,16 @@
       <c r="G16" s="44">
         <v>8</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="77">
         <v>7</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="77">
         <v>5</v>
       </c>
       <c r="J16" s="44">
         <v>4</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="82">
         <v>10</v>
       </c>
     </row>
@@ -6911,13 +6911,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="85">
-        <v>1</v>
-      </c>
-      <c r="E17" s="86">
-        <v>1</v>
-      </c>
-      <c r="F17" s="86">
+      <c r="D17" s="79">
+        <v>1</v>
+      </c>
+      <c r="E17" s="80">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80">
         <v>1</v>
       </c>
       <c r="G17" s="35">
@@ -6926,13 +6926,13 @@
       <c r="H17" s="35">
         <v>1</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="80">
         <v>1</v>
       </c>
       <c r="J17" s="35">
         <v>1</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="81">
         <v>1</v>
       </c>
     </row>
@@ -6941,19 +6941,19 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="74">
         <v>6</v>
       </c>
       <c r="E18" s="19">
         <v>9</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>5</v>
       </c>
       <c r="G18" s="19">
         <v>9</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="72">
         <v>7</v>
       </c>
       <c r="I18" s="19">
@@ -6962,7 +6962,7 @@
       <c r="J18" s="19">
         <v>5</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="73">
         <v>2</v>
       </c>
     </row>
@@ -6980,7 +6980,7 @@
       <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="72">
         <v>1</v>
       </c>
       <c r="G19" s="19">
@@ -6992,10 +6992,10 @@
       <c r="I19" s="19">
         <v>1</v>
       </c>
-      <c r="J19" s="78">
-        <v>1</v>
-      </c>
-      <c r="K19" s="81">
+      <c r="J19" s="72">
+        <v>1</v>
+      </c>
+      <c r="K19" s="75">
         <v>1</v>
       </c>
     </row>
@@ -7005,10 +7005,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="76">
         <v>10</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="77">
         <v>5</v>
       </c>
       <c r="F20" s="44">
@@ -7017,16 +7017,16 @@
       <c r="G20" s="44">
         <v>6</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="77">
         <v>5</v>
       </c>
       <c r="I20" s="44">
         <v>2</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="77">
         <v>8</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="82">
         <v>8</v>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7234,19 +7234,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7294,28 +7294,28 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="74">
-        <v>1</v>
-      </c>
-      <c r="E5" s="75">
-        <v>1</v>
-      </c>
-      <c r="F5" s="76">
-        <v>1</v>
-      </c>
-      <c r="G5" s="76">
-        <v>1</v>
-      </c>
-      <c r="H5" s="75">
-        <v>1</v>
-      </c>
-      <c r="I5" s="75">
-        <v>1</v>
-      </c>
-      <c r="J5" s="76">
-        <v>1</v>
-      </c>
-      <c r="K5" s="77">
+      <c r="D5" s="68">
+        <v>1</v>
+      </c>
+      <c r="E5" s="69">
+        <v>1</v>
+      </c>
+      <c r="F5" s="70">
+        <v>1</v>
+      </c>
+      <c r="G5" s="70">
+        <v>1</v>
+      </c>
+      <c r="H5" s="69">
+        <v>1</v>
+      </c>
+      <c r="I5" s="69">
+        <v>1</v>
+      </c>
+      <c r="J5" s="70">
+        <v>1</v>
+      </c>
+      <c r="K5" s="71">
         <v>1</v>
       </c>
     </row>
@@ -7327,13 +7327,13 @@
       <c r="D6" s="54">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E6" s="78">
+      <c r="E6" s="72">
         <v>5.4</v>
       </c>
       <c r="F6" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="72">
         <v>5.5</v>
       </c>
       <c r="H6" s="19">
@@ -7342,10 +7342,10 @@
       <c r="I6" s="19">
         <v>4</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="72">
         <v>4.3</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="73">
         <v>4.8</v>
       </c>
     </row>
@@ -7357,7 +7357,7 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="74">
         <v>1</v>
       </c>
       <c r="E7" s="19">
@@ -7366,7 +7366,7 @@
       <c r="F7" s="19">
         <v>1</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="72">
         <v>1</v>
       </c>
       <c r="H7" s="19">
@@ -7375,10 +7375,10 @@
       <c r="I7" s="19">
         <v>1</v>
       </c>
-      <c r="J7" s="78">
-        <v>1</v>
-      </c>
-      <c r="K7" s="81">
+      <c r="J7" s="72">
+        <v>1</v>
+      </c>
+      <c r="K7" s="75">
         <v>1</v>
       </c>
     </row>
@@ -7388,13 +7388,13 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="76">
         <v>4.5</v>
       </c>
       <c r="E8" s="44">
         <v>7.5</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="77">
         <v>4.5999999999999996</v>
       </c>
       <c r="G8" s="44">
@@ -7406,10 +7406,10 @@
       <c r="I8" s="44">
         <v>6</v>
       </c>
-      <c r="J8" s="83">
+      <c r="J8" s="77">
         <v>6.3</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="78">
         <v>5.6</v>
       </c>
     </row>
@@ -7423,16 +7423,16 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="85">
-        <v>1</v>
-      </c>
-      <c r="E9" s="86">
+      <c r="D9" s="79">
+        <v>1</v>
+      </c>
+      <c r="E9" s="80">
         <v>1</v>
       </c>
       <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="80">
         <v>1</v>
       </c>
       <c r="H9" s="35">
@@ -7441,10 +7441,10 @@
       <c r="I9" s="35">
         <v>1</v>
       </c>
-      <c r="J9" s="86">
-        <v>1</v>
-      </c>
-      <c r="K9" s="87">
+      <c r="J9" s="80">
+        <v>1</v>
+      </c>
+      <c r="K9" s="81">
         <v>1</v>
       </c>
     </row>
@@ -7456,16 +7456,16 @@
       <c r="D10" s="54">
         <v>6.1</v>
       </c>
-      <c r="E10" s="78">
+      <c r="E10" s="72">
         <v>7.4</v>
       </c>
       <c r="F10" s="19">
         <v>7</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="72">
         <v>5.9</v>
       </c>
-      <c r="H10" s="78">
+      <c r="H10" s="72">
         <v>5.9</v>
       </c>
       <c r="I10" s="19">
@@ -7474,7 +7474,7 @@
       <c r="J10" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="73">
         <v>6</v>
       </c>
     </row>
@@ -7486,7 +7486,7 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="80">
+      <c r="D11" s="74">
         <v>1</v>
       </c>
       <c r="E11" s="19">
@@ -7498,16 +7498,16 @@
       <c r="G11" s="19">
         <v>1</v>
       </c>
-      <c r="H11" s="78">
-        <v>1</v>
-      </c>
-      <c r="I11" s="78">
+      <c r="H11" s="72">
+        <v>1</v>
+      </c>
+      <c r="I11" s="72">
         <v>1</v>
       </c>
       <c r="J11" s="19">
         <v>1</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="73">
         <v>1</v>
       </c>
     </row>
@@ -7517,10 +7517,10 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="76">
         <v>5.9</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="77">
         <v>5.3</v>
       </c>
       <c r="F12" s="44">
@@ -7535,10 +7535,10 @@
       <c r="I12" s="44">
         <v>5.4</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="77">
         <v>5.7</v>
       </c>
-      <c r="K12" s="84">
+      <c r="K12" s="78">
         <v>5.3</v>
       </c>
     </row>
@@ -7552,28 +7552,28 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="79">
         <v>1</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
       </c>
-      <c r="F13" s="86">
-        <v>1</v>
-      </c>
-      <c r="G13" s="86">
-        <v>1</v>
-      </c>
-      <c r="H13" s="86">
+      <c r="F13" s="80">
+        <v>1</v>
+      </c>
+      <c r="G13" s="80">
+        <v>1</v>
+      </c>
+      <c r="H13" s="80">
         <v>1</v>
       </c>
       <c r="I13" s="35">
         <v>1</v>
       </c>
-      <c r="J13" s="86">
-        <v>1</v>
-      </c>
-      <c r="K13" s="87">
+      <c r="J13" s="80">
+        <v>1</v>
+      </c>
+      <c r="K13" s="81">
         <v>1</v>
       </c>
     </row>
@@ -7582,7 +7582,7 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="74">
         <v>5</v>
       </c>
       <c r="E14" s="19">
@@ -7597,13 +7597,13 @@
       <c r="H14" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="72">
         <v>6.4</v>
       </c>
-      <c r="J14" s="78">
+      <c r="J14" s="72">
         <v>6.7</v>
       </c>
-      <c r="K14" s="79">
+      <c r="K14" s="73">
         <v>6.3</v>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="80">
+      <c r="D15" s="74">
         <v>1</v>
       </c>
       <c r="E15" s="19">
@@ -7627,7 +7627,7 @@
       <c r="G15" s="19">
         <v>1</v>
       </c>
-      <c r="H15" s="78">
+      <c r="H15" s="72">
         <v>1</v>
       </c>
       <c r="I15" s="19">
@@ -7636,7 +7636,7 @@
       <c r="J15" s="19">
         <v>1</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K15" s="75">
         <v>1</v>
       </c>
     </row>
@@ -7646,10 +7646,10 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="76">
         <v>6.2</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="77">
         <v>5.2</v>
       </c>
       <c r="F16" s="44">
@@ -7658,16 +7658,16 @@
       <c r="G16" s="44">
         <v>7.5</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="77">
         <v>7.3</v>
       </c>
-      <c r="I16" s="83">
+      <c r="I16" s="77">
         <v>6.1</v>
       </c>
       <c r="J16" s="44">
         <v>6.6</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K16" s="82">
         <v>5.7</v>
       </c>
     </row>
@@ -7681,13 +7681,13 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="85">
-        <v>1</v>
-      </c>
-      <c r="E17" s="86">
-        <v>1</v>
-      </c>
-      <c r="F17" s="86">
+      <c r="D17" s="79">
+        <v>1</v>
+      </c>
+      <c r="E17" s="80">
+        <v>1</v>
+      </c>
+      <c r="F17" s="80">
         <v>1</v>
       </c>
       <c r="G17" s="35">
@@ -7696,13 +7696,13 @@
       <c r="H17" s="35">
         <v>1</v>
       </c>
-      <c r="I17" s="86">
+      <c r="I17" s="80">
         <v>1</v>
       </c>
       <c r="J17" s="35">
         <v>1</v>
       </c>
-      <c r="K17" s="87">
+      <c r="K17" s="81">
         <v>1</v>
       </c>
     </row>
@@ -7711,19 +7711,19 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="80">
+      <c r="D18" s="74">
         <v>6.1</v>
       </c>
       <c r="E18" s="19">
         <v>6</v>
       </c>
-      <c r="F18" s="78">
+      <c r="F18" s="72">
         <v>5.8</v>
       </c>
       <c r="G18" s="19">
         <v>6.4</v>
       </c>
-      <c r="H18" s="78">
+      <c r="H18" s="72">
         <v>5.9</v>
       </c>
       <c r="I18" s="19">
@@ -7732,7 +7732,7 @@
       <c r="J18" s="19">
         <v>5.6</v>
       </c>
-      <c r="K18" s="79">
+      <c r="K18" s="73">
         <v>5.4</v>
       </c>
     </row>
@@ -7750,7 +7750,7 @@
       <c r="E19" s="19">
         <v>1</v>
       </c>
-      <c r="F19" s="78">
+      <c r="F19" s="72">
         <v>1</v>
       </c>
       <c r="G19" s="19">
@@ -7762,10 +7762,10 @@
       <c r="I19" s="19">
         <v>1</v>
       </c>
-      <c r="J19" s="78">
-        <v>1</v>
-      </c>
-      <c r="K19" s="81">
+      <c r="J19" s="72">
+        <v>1</v>
+      </c>
+      <c r="K19" s="75">
         <v>1</v>
       </c>
     </row>
@@ -7775,10 +7775,10 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="82">
+      <c r="D20" s="76">
         <v>6.4</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="77">
         <v>6.1</v>
       </c>
       <c r="F20" s="44">
@@ -7787,16 +7787,16 @@
       <c r="G20" s="44">
         <v>5.4</v>
       </c>
-      <c r="H20" s="83">
+      <c r="H20" s="77">
         <v>7.6</v>
       </c>
       <c r="I20" s="44">
         <v>6.1</v>
       </c>
-      <c r="J20" s="83">
+      <c r="J20" s="77">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K20" s="82">
         <v>6.9</v>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8009,24 +8009,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8036,29 +8036,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="60" t="s">
+      <c r="L3" s="87"/>
+      <c r="M3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="61"/>
-      <c r="O3" s="60" t="s">
+      <c r="N3" s="87"/>
+      <c r="O3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="62"/>
+      <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9124,7 +9124,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9149,61 +9149,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60" t="s">
+      <c r="G3" s="87"/>
+      <c r="H3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="87"/>
+      <c r="J3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="60" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="61"/>
-      <c r="P3" s="60" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="60" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="62"/>
+      <c r="S3" s="88"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -9277,51 +9277,35 @@
       <c r="D5" s="28">
         <v>1.5625E-2</v>
       </c>
-      <c r="E5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="E5" s="27"/>
       <c r="F5" s="28">
         <v>0.25</v>
       </c>
-      <c r="G5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="G5" s="27"/>
       <c r="H5" s="28">
         <v>7.8125E-3</v>
       </c>
-      <c r="I5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="I5" s="27"/>
       <c r="J5" s="57">
         <v>0.25</v>
       </c>
-      <c r="K5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="K5" s="27"/>
       <c r="L5" s="12">
         <v>3.90625E-3</v>
       </c>
-      <c r="M5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="M5" s="27"/>
       <c r="N5" s="27">
         <v>-1024</v>
       </c>
-      <c r="O5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="O5" s="27"/>
       <c r="P5" s="28">
         <v>6.25E-2</v>
       </c>
-      <c r="Q5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="Q5" s="27"/>
       <c r="R5" s="28">
         <v>7.8125E-3</v>
       </c>
-      <c r="S5" s="27">
-        <v>1024.001</v>
-      </c>
+      <c r="S5" s="27"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -9331,51 +9315,35 @@
       <c r="D6" s="31">
         <v>7.8125E-3</v>
       </c>
-      <c r="E6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="E6" s="29"/>
       <c r="F6" s="31">
         <v>1.953125E-3</v>
       </c>
-      <c r="G6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="G6" s="29"/>
       <c r="H6" s="30">
         <v>7.8125E-3</v>
       </c>
-      <c r="I6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="I6" s="29"/>
       <c r="J6" s="30">
         <v>0.25</v>
       </c>
-      <c r="K6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="K6" s="29"/>
       <c r="L6" s="30">
         <v>0.125</v>
       </c>
-      <c r="M6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="M6" s="29"/>
       <c r="N6" s="29">
         <v>-4</v>
       </c>
-      <c r="O6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="O6" s="29"/>
       <c r="P6" s="31">
         <v>6.25E-2</v>
       </c>
-      <c r="Q6" s="29">
-        <v>1024.001</v>
-      </c>
-      <c r="R6" s="29">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="13">
         <v>0.125</v>
       </c>
-      <c r="S6" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="S6" s="29"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -9388,51 +9356,35 @@
       <c r="D7" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="E7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="E7" s="29"/>
       <c r="F7" s="31">
         <v>7.8125E-3</v>
       </c>
-      <c r="G7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="29">
         <v>32</v>
       </c>
-      <c r="I7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="I7" s="29"/>
       <c r="J7" s="30">
         <v>0.5</v>
       </c>
-      <c r="K7" s="29">
-        <v>1024.001</v>
-      </c>
-      <c r="L7" s="29">
+      <c r="K7" s="29"/>
+      <c r="L7" s="13">
         <v>1.953125E-3</v>
       </c>
-      <c r="M7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="M7" s="29"/>
       <c r="N7" s="31">
         <v>-9.765625E-4</v>
       </c>
-      <c r="O7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="O7" s="29"/>
       <c r="P7" s="30">
         <v>0.25</v>
       </c>
-      <c r="Q7" s="29">
-        <v>1024.001</v>
-      </c>
-      <c r="R7" s="30">
+      <c r="Q7" s="29"/>
+      <c r="R7" s="13">
         <v>1.953125E-3</v>
       </c>
-      <c r="S7" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -9443,51 +9395,35 @@
       <c r="D8" s="29">
         <v>2</v>
       </c>
-      <c r="E8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="E8" s="29"/>
       <c r="F8" s="30">
         <v>6.25E-2</v>
       </c>
-      <c r="G8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="G8" s="29"/>
       <c r="H8" s="31">
         <v>0.125</v>
       </c>
-      <c r="I8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="I8" s="29"/>
       <c r="J8" s="19">
         <v>0.5</v>
       </c>
-      <c r="K8" s="29">
-        <v>1024.001</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="K8" s="29"/>
+      <c r="L8" s="31">
         <v>3.125E-2</v>
       </c>
-      <c r="M8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="M8" s="29"/>
       <c r="N8" s="13">
         <v>-9.765625E-4</v>
       </c>
-      <c r="O8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="O8" s="29"/>
       <c r="P8" s="13">
         <v>0.125</v>
       </c>
-      <c r="Q8" s="29">
-        <v>1024.001</v>
-      </c>
-      <c r="R8" s="29">
+      <c r="Q8" s="29"/>
+      <c r="R8" s="13">
         <v>3.90625E-3</v>
       </c>
-      <c r="S8" s="29">
-        <v>1024.001</v>
-      </c>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -9502,51 +9438,35 @@
       <c r="D9" s="30">
         <v>0.2</v>
       </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="19">
         <v>0.6</v>
       </c>
-      <c r="G9" s="29">
-        <v>1</v>
-      </c>
+      <c r="G9" s="29"/>
       <c r="H9" s="30">
         <v>0.8</v>
       </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="30">
+      <c r="I9" s="29"/>
+      <c r="J9" s="13">
         <v>1E-3</v>
       </c>
-      <c r="K9" s="29">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="K9" s="29"/>
+      <c r="L9" s="13">
         <v>1E-3</v>
       </c>
-      <c r="M9" s="29">
-        <v>1</v>
-      </c>
+      <c r="M9" s="29"/>
       <c r="N9" s="19">
         <v>0.7</v>
       </c>
-      <c r="O9" s="29">
-        <v>1</v>
-      </c>
+      <c r="O9" s="29"/>
       <c r="P9" s="30">
         <v>0.6</v>
       </c>
-      <c r="Q9" s="29">
-        <v>1</v>
-      </c>
+      <c r="Q9" s="29"/>
       <c r="R9" s="19">
         <v>0.8</v>
       </c>
-      <c r="S9" s="29">
-        <v>1</v>
-      </c>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
@@ -9556,51 +9476,35 @@
       <c r="D10" s="30">
         <v>0.999</v>
       </c>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
+      <c r="E10" s="29"/>
       <c r="F10" s="19">
         <v>0.3</v>
       </c>
-      <c r="G10" s="29">
-        <v>1</v>
-      </c>
+      <c r="G10" s="29"/>
       <c r="H10" s="30">
         <v>0.7</v>
       </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="29"/>
+      <c r="J10" s="13">
         <v>1E-3</v>
       </c>
-      <c r="K10" s="29">
-        <v>1</v>
-      </c>
+      <c r="K10" s="29"/>
       <c r="L10" s="29">
         <v>0.999</v>
       </c>
-      <c r="M10" s="29">
-        <v>1</v>
-      </c>
+      <c r="M10" s="29"/>
       <c r="N10" s="30">
         <v>0.01</v>
       </c>
-      <c r="O10" s="29">
-        <v>1</v>
-      </c>
+      <c r="O10" s="29"/>
       <c r="P10" s="30">
         <v>0.99</v>
       </c>
-      <c r="Q10" s="29">
-        <v>1</v>
-      </c>
+      <c r="Q10" s="29"/>
       <c r="R10" s="19">
         <v>0.1</v>
       </c>
-      <c r="S10" s="29">
-        <v>1</v>
-      </c>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
@@ -9613,51 +9517,35 @@
       <c r="D11" s="30">
         <v>0.4</v>
       </c>
-      <c r="E11" s="29">
-        <v>1</v>
-      </c>
+      <c r="E11" s="29"/>
       <c r="F11" s="30">
         <v>0.6</v>
       </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
+      <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>0.8</v>
       </c>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
+      <c r="I11" s="29"/>
       <c r="J11" s="30">
         <v>0.1</v>
       </c>
-      <c r="K11" s="29">
-        <v>1</v>
-      </c>
+      <c r="K11" s="29"/>
       <c r="L11" s="30">
         <v>0.3</v>
       </c>
-      <c r="M11" s="29">
-        <v>1</v>
-      </c>
+      <c r="M11" s="29"/>
       <c r="N11" s="19">
         <v>0.7</v>
       </c>
-      <c r="O11" s="29">
-        <v>1</v>
-      </c>
+      <c r="O11" s="29"/>
       <c r="P11" s="30">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="29">
-        <v>1</v>
-      </c>
+      <c r="Q11" s="29"/>
       <c r="R11" s="19">
         <v>0.4</v>
       </c>
-      <c r="S11" s="29">
-        <v>1</v>
-      </c>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -9668,51 +9556,35 @@
       <c r="D12" s="30">
         <v>0.4</v>
       </c>
-      <c r="E12" s="29">
-        <v>1</v>
-      </c>
+      <c r="E12" s="29"/>
       <c r="F12" s="30">
         <v>0.7</v>
       </c>
-      <c r="G12" s="29">
-        <v>1</v>
-      </c>
+      <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>0.9</v>
       </c>
-      <c r="I12" s="29">
-        <v>1</v>
-      </c>
+      <c r="I12" s="29"/>
       <c r="J12" s="19">
         <v>0.9</v>
       </c>
-      <c r="K12" s="29">
-        <v>1</v>
-      </c>
+      <c r="K12" s="29"/>
       <c r="L12" s="30">
         <v>0.01</v>
       </c>
-      <c r="M12" s="29">
-        <v>1</v>
-      </c>
-      <c r="N12" s="19">
+      <c r="M12" s="29"/>
+      <c r="N12" s="30">
         <v>0.01</v>
       </c>
-      <c r="O12" s="29">
-        <v>1</v>
-      </c>
+      <c r="O12" s="29"/>
       <c r="P12" s="30">
         <v>0.1</v>
       </c>
-      <c r="Q12" s="29">
-        <v>1</v>
-      </c>
+      <c r="Q12" s="29"/>
       <c r="R12" s="31">
         <v>1E-3</v>
       </c>
-      <c r="S12" s="29">
-        <v>1</v>
-      </c>
+      <c r="S12" s="29"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -9917,7 +9789,7 @@
       <c r="L16" s="31">
         <v>1.5625E-2</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="30">
         <v>0.2509765625</v>
       </c>
       <c r="N16" s="29">
@@ -10009,10 +9881,10 @@
       <c r="E18" s="29">
         <v>128.0009765625</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>32</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="29">
         <v>1024.0009765625</v>
       </c>
       <c r="H18" s="31">
